--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6EFC0-FE05-4E36-A575-8DDDB99CBEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92CB324-2F6E-4769-B560-0DEBD840A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Konfiguration Unity</t>
   </si>
   <si>
-    <t>Neue Projekt erstellen</t>
-  </si>
-  <si>
     <t>Ressourcen suchen</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>Änderungen an der Dokumentation</t>
+  </si>
+  <si>
+    <t>Neue Projekt erstellen und konfigurieren</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1197,138 +1200,139 @@
     <xf numFmtId="2" fontId="11" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,16 +1487,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596237</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>209017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181621</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>191699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1507,8 +1511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14902223" y="14440889"/>
-          <a:ext cx="306561" cy="407777"/>
+          <a:off x="21898690" y="9674111"/>
+          <a:ext cx="340195" cy="414003"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1900,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:CG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y48" sqref="I48:Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,22 +1924,22 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:85" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="H2" s="78" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="85"/>
+      <c r="K2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -1963,15 +1967,15 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="K3" s="68" t="s">
+      <c r="I3" s="86"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -1998,16 +2002,16 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -2035,16 +2039,16 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="81"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2074,11 +2078,11 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2136,226 +2140,226 @@
     </row>
     <row r="9" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:85" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="82" t="s">
+      <c r="E10" s="76"/>
+      <c r="F10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="83"/>
-      <c r="BM10" s="83"/>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="83"/>
-      <c r="BT10" s="83"/>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="83"/>
-      <c r="CA10" s="83"/>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="79"/>
+      <c r="BZ10" s="79"/>
+      <c r="CA10" s="79"/>
+      <c r="CB10" s="79"/>
+      <c r="CC10" s="79"/>
+      <c r="CD10" s="79"/>
+      <c r="CE10" s="79"/>
+      <c r="CF10" s="79"/>
+      <c r="CG10" s="80"/>
     </row>
     <row r="11" spans="1:85" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="86">
-        <v>45067</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="87">
+      <c r="A11" s="75"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="82">
         <v>45068</v>
       </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="87">
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="61">
         <v>45069</v>
       </c>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="86">
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="61">
+        <v>45071</v>
+      </c>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="82">
         <v>45070</v>
       </c>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="87">
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="61">
         <v>45071</v>
       </c>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="87">
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="61">
         <v>45072</v>
       </c>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="88"/>
-      <c r="AY11" s="88"/>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="87">
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="62"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="61">
         <v>45076</v>
       </c>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="88"/>
-      <c r="BF11" s="88"/>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="87">
+      <c r="BC11" s="62"/>
+      <c r="BD11" s="62"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="61">
         <v>45077</v>
       </c>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="88"/>
-      <c r="BM11" s="88"/>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="87">
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="63"/>
+      <c r="BR11" s="61">
         <v>45078</v>
       </c>
-      <c r="BS11" s="88"/>
-      <c r="BT11" s="88"/>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="87">
+      <c r="BS11" s="62"/>
+      <c r="BT11" s="62"/>
+      <c r="BU11" s="62"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="62"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="61">
         <v>45079</v>
       </c>
-      <c r="CA11" s="88"/>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
+      <c r="CA11" s="62"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="62"/>
+      <c r="CF11" s="62"/>
+      <c r="CG11" s="63"/>
     </row>
     <row r="12" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="59" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
@@ -2439,14 +2443,14 @@
       <c r="CG12" s="40"/>
     </row>
     <row r="13" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="56"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
@@ -2530,18 +2534,18 @@
       <c r="CG13" s="40"/>
     </row>
     <row r="14" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="38"/>
@@ -2625,14 +2629,14 @@
       <c r="CG14" s="40"/>
     </row>
     <row r="15" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="56"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="38"/>
@@ -2716,18 +2720,18 @@
       <c r="CG15" s="40"/>
     </row>
     <row r="16" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>53</v>
+      <c r="C16" s="59" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="38"/>
@@ -2811,14 +2815,14 @@
       <c r="CG16" s="40"/>
     </row>
     <row r="17" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="56"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="38"/>
@@ -2902,18 +2906,18 @@
       <c r="CG17" s="40"/>
     </row>
     <row r="18" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>74</v>
+      <c r="C18" s="59" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="38"/>
@@ -2997,14 +3001,14 @@
       <c r="CG18" s="40"/>
     </row>
     <row r="19" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="56"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="38"/>
@@ -3088,18 +3092,18 @@
       <c r="CG19" s="40"/>
     </row>
     <row r="20" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>82</v>
+      <c r="C20" s="59" t="s">
+        <v>81</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="38"/>
@@ -3183,14 +3187,14 @@
       <c r="CG20" s="40"/>
     </row>
     <row r="21" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="56"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="38"/>
@@ -3274,18 +3278,18 @@
       <c r="CG21" s="40"/>
     </row>
     <row r="22" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="58" t="s">
-        <v>85</v>
+      <c r="C22" s="59" t="s">
+        <v>84</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="38"/>
@@ -3369,14 +3373,14 @@
       <c r="CG22" s="40"/>
     </row>
     <row r="23" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="56"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="38"/>
@@ -3460,18 +3464,18 @@
       <c r="CG23" s="40"/>
     </row>
     <row r="24" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="58" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="38"/>
@@ -3555,14 +3559,14 @@
       <c r="CG24" s="40"/>
     </row>
     <row r="25" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="38"/>
@@ -3646,18 +3650,18 @@
       <c r="CG25" s="40"/>
     </row>
     <row r="26" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="B26" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>55</v>
+      <c r="A26" s="64"/>
+      <c r="B26" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="38"/>
@@ -3741,14 +3745,14 @@
       <c r="CG26" s="40"/>
     </row>
     <row r="27" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="38"/>
@@ -3832,18 +3836,18 @@
       <c r="CG27" s="40"/>
     </row>
     <row r="28" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
-      <c r="B28" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>51</v>
+      <c r="A28" s="64"/>
+      <c r="B28" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>50</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="38"/>
@@ -3927,14 +3931,14 @@
       <c r="CG28" s="40"/>
     </row>
     <row r="29" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -4018,20 +4022,20 @@
       <c r="CG29" s="26"/>
     </row>
     <row r="30" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="94" t="s">
-        <v>58</v>
+      <c r="C30" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -4041,7 +4045,7 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="30"/>
-      <c r="N30" s="33"/>
+      <c r="N30" s="44"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -4115,14 +4119,14 @@
       <c r="CG30" s="31"/>
     </row>
     <row r="31" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="38"/>
@@ -4132,8 +4136,7 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="40"/>
+      <c r="N31" s="45"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -4206,18 +4209,18 @@
       <c r="CG31" s="40"/>
     </row>
     <row r="32" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
-      <c r="B32" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>67</v>
+      <c r="A32" s="64"/>
+      <c r="B32" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="38"/>
@@ -4228,8 +4231,8 @@
       <c r="L32" s="38"/>
       <c r="M32" s="46"/>
       <c r="N32" s="41"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
       <c r="Q32" s="40"/>
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
@@ -4301,14 +4304,14 @@
       <c r="CG32" s="40"/>
     </row>
     <row r="33" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="38"/>
@@ -4319,8 +4322,8 @@
       <c r="L33" s="38"/>
       <c r="M33" s="46"/>
       <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
       <c r="Q33" s="40"/>
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
@@ -4392,18 +4395,18 @@
       <c r="CG33" s="40"/>
     </row>
     <row r="34" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="B34" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>69</v>
+      <c r="A34" s="64"/>
+      <c r="B34" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="38"/>
@@ -4416,7 +4419,7 @@
       <c r="N34" s="41"/>
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
+      <c r="Q34" s="44"/>
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
       <c r="T34" s="40"/>
@@ -4487,14 +4490,14 @@
       <c r="CG34" s="40"/>
     </row>
     <row r="35" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="38"/>
@@ -4507,7 +4510,7 @@
       <c r="N35" s="41"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
+      <c r="Q35" s="45"/>
       <c r="R35" s="40"/>
       <c r="S35" s="40"/>
       <c r="T35" s="40"/>
@@ -4578,18 +4581,18 @@
       <c r="CG35" s="40"/>
     </row>
     <row r="36" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>56</v>
+      <c r="A36" s="64"/>
+      <c r="B36" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>55</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="38"/>
@@ -4603,7 +4606,7 @@
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
+      <c r="R36" s="44"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
       <c r="U36" s="47"/>
@@ -4673,14 +4676,14 @@
       <c r="CG36" s="40"/>
     </row>
     <row r="37" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="38"/>
@@ -4694,7 +4697,7 @@
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
+      <c r="R37" s="45"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="47"/>
@@ -4764,18 +4767,18 @@
       <c r="CG37" s="40"/>
     </row>
     <row r="38" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
-      <c r="B38" s="85" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="58" t="s">
-        <v>57</v>
+      <c r="C38" s="59" t="s">
+        <v>56</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="38"/>
@@ -4789,12 +4792,12 @@
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
       <c r="T38" s="40"/>
       <c r="U38" s="47"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="40"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40"/>
@@ -4859,9 +4862,9 @@
       <c r="CG38" s="40"/>
     </row>
     <row r="39" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="50" t="s">
         <v>24</v>
       </c>
@@ -4880,12 +4883,12 @@
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
       <c r="T39" s="40"/>
       <c r="U39" s="47"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="40"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
@@ -4950,18 +4953,18 @@
       <c r="CG39" s="40"/>
     </row>
     <row r="40" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="56"/>
-      <c r="B40" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>68</v>
+      <c r="A40" s="64"/>
+      <c r="B40" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="38"/>
@@ -4977,12 +4980,12 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
+      <c r="T40" s="100"/>
       <c r="U40" s="47"/>
       <c r="V40" s="41"/>
       <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
       <c r="Z40" s="40"/>
       <c r="AA40" s="40"/>
       <c r="AB40" s="40"/>
@@ -5045,14 +5048,14 @@
       <c r="CG40" s="40"/>
     </row>
     <row r="41" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="56"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="38"/>
@@ -5068,12 +5071,12 @@
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
+      <c r="T41" s="100"/>
       <c r="U41" s="47"/>
       <c r="V41" s="41"/>
       <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="40"/>
@@ -5136,18 +5139,18 @@
       <c r="CG41" s="40"/>
     </row>
     <row r="42" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
-      <c r="B42" s="58">
+      <c r="A42" s="64"/>
+      <c r="B42" s="59">
         <v>2.7</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>73</v>
+      <c r="C42" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="38"/>
@@ -5168,7 +5171,7 @@
       <c r="V42" s="41"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
+      <c r="Y42" s="44"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="40"/>
@@ -5231,14 +5234,14 @@
       <c r="CG42" s="40"/>
     </row>
     <row r="43" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="57"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
@@ -5259,7 +5262,7 @@
       <c r="V43" s="25"/>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
+      <c r="Y43" s="45"/>
       <c r="Z43" s="26"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
@@ -5322,20 +5325,20 @@
       <c r="CG43" s="26"/>
     </row>
     <row r="44" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="59" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -5419,14 +5422,14 @@
       <c r="CG44" s="31"/>
     </row>
     <row r="45" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="56"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="59"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="38"/>
@@ -5510,18 +5513,18 @@
       <c r="CG45" s="40"/>
     </row>
     <row r="46" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="64"/>
+      <c r="B46" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="38"/>
@@ -5605,14 +5608,14 @@
       <c r="CG46" s="40"/>
     </row>
     <row r="47" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="59"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="38"/>
@@ -5696,17 +5699,19 @@
       <c r="CG47" s="40"/>
     </row>
     <row r="48" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
-      <c r="B48" s="60" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>48</v>
+      <c r="C48" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="34"/>
+      <c r="E48" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="F48" s="43"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
@@ -5727,7 +5732,7 @@
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
       <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
+      <c r="Z48" s="44"/>
       <c r="AA48" s="40"/>
       <c r="AB48" s="40"/>
       <c r="AC48" s="47"/>
@@ -5789,13 +5794,15 @@
       <c r="CG48" s="40"/>
     </row>
     <row r="49" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="56"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="35"/>
+      <c r="E49" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="F49" s="43"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
@@ -5816,7 +5823,7 @@
       <c r="W49" s="40"/>
       <c r="X49" s="40"/>
       <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
+      <c r="Z49" s="45"/>
       <c r="AA49" s="40"/>
       <c r="AB49" s="40"/>
       <c r="AC49" s="47"/>
@@ -5878,17 +5885,19 @@
       <c r="CG49" s="40"/>
     </row>
     <row r="50" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56"/>
-      <c r="B50" s="60" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="58" t="s">
-        <v>49</v>
+      <c r="C50" s="59" t="s">
+        <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="34"/>
+      <c r="E50" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="F50" s="43"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
@@ -5971,13 +5980,15 @@
       <c r="CG50" s="40"/>
     </row>
     <row r="51" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="56"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="35" t="s">
+        <v>89</v>
+      </c>
       <c r="F51" s="43"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
@@ -6060,12 +6071,12 @@
       <c r="CG51" s="40"/>
     </row>
     <row r="52" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="56"/>
-      <c r="B52" s="60" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="58" t="s">
-        <v>50</v>
+      <c r="C52" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>23</v>
@@ -6153,9 +6164,9 @@
       <c r="CG52" s="40"/>
     </row>
     <row r="53" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="50" t="s">
         <v>24</v>
       </c>
@@ -6242,17 +6253,19 @@
       <c r="CG53" s="40"/>
     </row>
     <row r="54" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="56"/>
-      <c r="B54" s="60" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="58" t="s">
-        <v>72</v>
+      <c r="C54" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="F54" s="43"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -6335,13 +6348,15 @@
       <c r="CG54" s="40"/>
     </row>
     <row r="55" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="56"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="36"/>
+      <c r="E55" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="F55" s="43"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
@@ -6424,17 +6439,19 @@
       <c r="CG55" s="40"/>
     </row>
     <row r="56" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="56"/>
-      <c r="B56" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>71</v>
+      <c r="A56" s="64"/>
+      <c r="B56" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="83" t="s">
+        <v>70</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="F56" s="43"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
@@ -6517,13 +6534,15 @@
       <c r="CG56" s="40"/>
     </row>
     <row r="57" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="56"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="59"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="36"/>
+      <c r="E57" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="F57" s="43"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
@@ -6606,17 +6625,19 @@
       <c r="CG57" s="40"/>
     </row>
     <row r="58" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="56"/>
-      <c r="B58" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>62</v>
+      <c r="A58" s="64"/>
+      <c r="B58" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="34"/>
+      <c r="E58" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="F58" s="43"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
@@ -6699,13 +6720,15 @@
       <c r="CG58" s="40"/>
     </row>
     <row r="59" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="57"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="36"/>
+      <c r="E59" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="F59" s="22"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -6788,20 +6811,20 @@
       <c r="CG59" s="26"/>
     </row>
     <row r="60" spans="1:85" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="65" t="s">
-        <v>87</v>
+      <c r="C60" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -6885,14 +6908,14 @@
       <c r="CG60" s="31"/>
     </row>
     <row r="61" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="96"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="94"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="38"/>
@@ -6976,12 +6999,12 @@
       <c r="CG61" s="40"/>
     </row>
     <row r="62" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
-      <c r="B62" s="60" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="58" t="s">
-        <v>88</v>
+      <c r="C62" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>23</v>
@@ -7069,9 +7092,9 @@
       <c r="CG62" s="40"/>
     </row>
     <row r="63" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="96"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="59"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="50" t="s">
         <v>24</v>
       </c>
@@ -7158,18 +7181,18 @@
       <c r="CG63" s="40"/>
     </row>
     <row r="64" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
-      <c r="B64" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="58" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="56" t="s">
         <v>59</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="D64" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="38"/>
@@ -7253,9 +7276,9 @@
       <c r="CG64" s="40"/>
     </row>
     <row r="65" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="97"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="51" t="s">
         <v>24</v>
       </c>
@@ -7346,20 +7369,54 @@
     <row r="66" spans="1:85" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="BJ11:BQ11"/>
-    <mergeCell ref="BR11:BY11"/>
-    <mergeCell ref="BZ11:CG11"/>
-    <mergeCell ref="A12:A29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AT11:BA11"/>
-    <mergeCell ref="BB11:BI11"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="V11:AC11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="A60:A65"/>
     <mergeCell ref="B38:B39"/>
@@ -7376,61 +7433,27 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
+    <mergeCell ref="BZ11:CG11"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="AT11:BA11"/>
+    <mergeCell ref="BB11:BI11"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F10:CG10"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="AD11:AK11"/>
     <mergeCell ref="AL11:AS11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="V11:AC11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="BJ11:BQ11"/>
+    <mergeCell ref="BR11:BY11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7443,13 +7466,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7652,26 +7674,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7696,9 +7711,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92CB324-2F6E-4769-B560-0DEBD840A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2747123-C570-4E06-9D8D-BBB888017965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="Aufgaben- und Terminplanung 241" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Druck" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$65</definedName>
+    <definedName name="Druck" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$67</definedName>
     <definedName name="Drucken" localSheetId="0">'Aufgaben- und Terminplanung 241'!$A:$C</definedName>
     <definedName name="jojo" localSheetId="0">'Aufgaben- und Terminplanung 241'!$A:$C</definedName>
-    <definedName name="Print" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$65</definedName>
+    <definedName name="Print" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Aufgaben- und Terminplanung 241'!$1:$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Aufgaben- und Terminplanung 241'!$A:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -223,9 +223,6 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>Projekt abgeben</t>
   </si>
   <si>
@@ -311,6 +308,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Storyboard beschreiben</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1067,11 +1070,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1200,81 +1229,82 @@
     <xf numFmtId="2" fontId="11" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,7 +1362,15 @@
     <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,10 +1940,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CG66"/>
+  <dimension ref="A1:CG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y48" sqref="I48:Y49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1924,22 +1962,22 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:85" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="H2" s="85" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="K2" s="89" t="s">
+      <c r="I2" s="86"/>
+      <c r="K2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -1967,15 +2005,15 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="K3" s="90" t="s">
+      <c r="I3" s="87"/>
+      <c r="K3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -2002,16 +2040,16 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -2039,16 +2077,16 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="88"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2072,17 +2110,17 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2140,226 +2178,226 @@
     </row>
     <row r="9" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:85" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="78" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CB10" s="79"/>
-      <c r="CC10" s="79"/>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
-      <c r="CF10" s="79"/>
-      <c r="CG10" s="80"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="72"/>
+      <c r="BK10" s="72"/>
+      <c r="BL10" s="72"/>
+      <c r="BM10" s="72"/>
+      <c r="BN10" s="72"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BT10" s="72"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="72"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="72"/>
+      <c r="BY10" s="72"/>
+      <c r="BZ10" s="72"/>
+      <c r="CA10" s="72"/>
+      <c r="CB10" s="72"/>
+      <c r="CC10" s="72"/>
+      <c r="CD10" s="72"/>
+      <c r="CE10" s="72"/>
+      <c r="CF10" s="72"/>
+      <c r="CG10" s="73"/>
     </row>
     <row r="11" spans="1:85" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="82">
+      <c r="A11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="83">
         <v>45068</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="61">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="59">
         <v>45069</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="61">
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="59">
         <v>45071</v>
       </c>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="82">
-        <v>45070</v>
-      </c>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="61">
-        <v>45071</v>
-      </c>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="61">
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="83">
         <v>45072</v>
       </c>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="61">
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="59">
+        <v>45073</v>
+      </c>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="59">
+        <v>45075</v>
+      </c>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="59">
         <v>45076</v>
       </c>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="62"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="61">
+      <c r="BC11" s="60"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="61"/>
+      <c r="BJ11" s="59">
         <v>45077</v>
       </c>
-      <c r="BK11" s="62"/>
-      <c r="BL11" s="62"/>
-      <c r="BM11" s="62"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="62"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="63"/>
-      <c r="BR11" s="61">
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BP11" s="60"/>
+      <c r="BQ11" s="61"/>
+      <c r="BR11" s="59">
         <v>45078</v>
       </c>
-      <c r="BS11" s="62"/>
-      <c r="BT11" s="62"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="62"/>
-      <c r="BX11" s="62"/>
-      <c r="BY11" s="63"/>
-      <c r="BZ11" s="61">
+      <c r="BS11" s="60"/>
+      <c r="BT11" s="60"/>
+      <c r="BU11" s="60"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="60"/>
+      <c r="BX11" s="60"/>
+      <c r="BY11" s="61"/>
+      <c r="BZ11" s="59">
         <v>45079</v>
       </c>
-      <c r="CA11" s="62"/>
-      <c r="CB11" s="62"/>
-      <c r="CC11" s="62"/>
-      <c r="CD11" s="62"/>
-      <c r="CE11" s="62"/>
-      <c r="CF11" s="62"/>
-      <c r="CG11" s="63"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="60"/>
+      <c r="CC11" s="60"/>
+      <c r="CD11" s="60"/>
+      <c r="CE11" s="60"/>
+      <c r="CF11" s="60"/>
+      <c r="CG11" s="61"/>
     </row>
     <row r="12" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
@@ -2443,14 +2481,14 @@
       <c r="CG12" s="40"/>
     </row>
     <row r="13" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
@@ -2534,18 +2572,18 @@
       <c r="CG13" s="40"/>
     </row>
     <row r="14" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="38"/>
@@ -2629,14 +2667,14 @@
       <c r="CG14" s="40"/>
     </row>
     <row r="15" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="38"/>
@@ -2720,18 +2758,18 @@
       <c r="CG15" s="40"/>
     </row>
     <row r="16" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="38"/>
@@ -2815,14 +2853,14 @@
       <c r="CG16" s="40"/>
     </row>
     <row r="17" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="38"/>
@@ -2906,18 +2944,18 @@
       <c r="CG17" s="40"/>
     </row>
     <row r="18" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>73</v>
+      <c r="C18" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="38"/>
@@ -3001,14 +3039,14 @@
       <c r="CG18" s="40"/>
     </row>
     <row r="19" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="64"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="38"/>
@@ -3092,18 +3130,18 @@
       <c r="CG19" s="40"/>
     </row>
     <row r="20" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>81</v>
+      <c r="C20" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="38"/>
@@ -3187,14 +3225,14 @@
       <c r="CG20" s="40"/>
     </row>
     <row r="21" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="38"/>
@@ -3278,18 +3316,18 @@
       <c r="CG21" s="40"/>
     </row>
     <row r="22" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="59" t="s">
-        <v>84</v>
+      <c r="C22" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="38"/>
@@ -3373,14 +3411,14 @@
       <c r="CG22" s="40"/>
     </row>
     <row r="23" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="64"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="38"/>
@@ -3464,18 +3502,18 @@
       <c r="CG23" s="40"/>
     </row>
     <row r="24" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="64"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="38"/>
@@ -3559,14 +3597,14 @@
       <c r="CG24" s="40"/>
     </row>
     <row r="25" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="38"/>
@@ -3650,18 +3688,18 @@
       <c r="CG25" s="40"/>
     </row>
     <row r="26" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64"/>
-      <c r="B26" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="59" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="57" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="38"/>
@@ -3745,14 +3783,14 @@
       <c r="CG26" s="40"/>
     </row>
     <row r="27" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="38"/>
@@ -3836,18 +3874,18 @@
       <c r="CG27" s="40"/>
     </row>
     <row r="28" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="64"/>
-      <c r="B28" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="38"/>
@@ -3931,14 +3969,14 @@
       <c r="CG28" s="40"/>
     </row>
     <row r="29" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="67"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -4022,20 +4060,20 @@
       <c r="CG29" s="26"/>
     </row>
     <row r="30" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>57</v>
+      <c r="C30" s="81" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -4119,14 +4157,14 @@
       <c r="CG30" s="31"/>
     </row>
     <row r="31" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="38"/>
@@ -4209,18 +4247,18 @@
       <c r="CG31" s="40"/>
     </row>
     <row r="32" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64"/>
-      <c r="B32" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="38"/>
@@ -4304,14 +4342,14 @@
       <c r="CG32" s="40"/>
     </row>
     <row r="33" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="64"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="38"/>
@@ -4395,18 +4433,18 @@
       <c r="CG33" s="40"/>
     </row>
     <row r="34" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64"/>
-      <c r="B34" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>68</v>
+      <c r="A34" s="63"/>
+      <c r="B34" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="38"/>
@@ -4490,14 +4528,14 @@
       <c r="CG34" s="40"/>
     </row>
     <row r="35" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="38"/>
@@ -4581,18 +4619,18 @@
       <c r="CG35" s="40"/>
     </row>
     <row r="36" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>55</v>
+      <c r="A36" s="63"/>
+      <c r="B36" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="38"/>
@@ -4606,11 +4644,11 @@
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
-      <c r="R36" s="44"/>
+      <c r="R36" s="56"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
       <c r="U36" s="47"/>
-      <c r="V36" s="41"/>
+      <c r="V36" s="44"/>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
@@ -4676,14 +4714,14 @@
       <c r="CG36" s="40"/>
     </row>
     <row r="37" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="64"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="60"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="38"/>
@@ -4697,11 +4735,11 @@
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
-      <c r="R37" s="45"/>
+      <c r="R37" s="56"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="47"/>
-      <c r="V37" s="41"/>
+      <c r="V37" s="45"/>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
@@ -4767,18 +4805,18 @@
       <c r="CG37" s="40"/>
     </row>
     <row r="38" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="64"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="59" t="s">
-        <v>56</v>
+      <c r="C38" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="38"/>
@@ -4792,8 +4830,8 @@
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
       <c r="T38" s="40"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
@@ -4862,9 +4900,9 @@
       <c r="CG38" s="40"/>
     </row>
     <row r="39" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="64"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="50" t="s">
         <v>24</v>
       </c>
@@ -4883,8 +4921,8 @@
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
       <c r="T39" s="40"/>
       <c r="U39" s="47"/>
       <c r="V39" s="45"/>
@@ -4953,18 +4991,18 @@
       <c r="CG39" s="40"/>
     </row>
     <row r="40" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="64"/>
-      <c r="B40" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>67</v>
+      <c r="A40" s="63"/>
+      <c r="B40" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="38"/>
@@ -4980,7 +5018,7 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
-      <c r="T40" s="100"/>
+      <c r="T40" s="56"/>
       <c r="U40" s="47"/>
       <c r="V40" s="41"/>
       <c r="W40" s="40"/>
@@ -5048,14 +5086,14 @@
       <c r="CG40" s="40"/>
     </row>
     <row r="41" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="51" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>77</v>
+      <c r="E41" s="101" t="s">
+        <v>76</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="38"/>
@@ -5071,7 +5109,7 @@
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="100"/>
+      <c r="T41" s="56"/>
       <c r="U41" s="47"/>
       <c r="V41" s="41"/>
       <c r="W41" s="40"/>
@@ -5138,19 +5176,19 @@
       <c r="CF41" s="40"/>
       <c r="CG41" s="40"/>
     </row>
-    <row r="42" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="64"/>
-      <c r="B42" s="59">
+    <row r="42" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="63"/>
+      <c r="B42" s="57">
         <v>2.7</v>
       </c>
-      <c r="C42" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>78</v>
+      <c r="E42" s="102" t="s">
+        <v>76</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="38"/>
@@ -5234,14 +5272,14 @@
       <c r="CG42" s="40"/>
     </row>
     <row r="43" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="65"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
@@ -5325,20 +5363,20 @@
       <c r="CG43" s="26"/>
     </row>
     <row r="44" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="84" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -5422,14 +5460,14 @@
       <c r="CG44" s="31"/>
     </row>
     <row r="45" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="64"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="38"/>
@@ -5513,18 +5551,18 @@
       <c r="CG45" s="40"/>
     </row>
     <row r="46" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="64"/>
-      <c r="B46" s="58" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="38"/>
@@ -5608,14 +5646,14 @@
       <c r="CG46" s="40"/>
     </row>
     <row r="47" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="64"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="60"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="38"/>
@@ -5699,18 +5737,18 @@
       <c r="CG47" s="40"/>
     </row>
     <row r="48" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="64"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="59" t="s">
-        <v>88</v>
+      <c r="C48" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="38"/>
@@ -5794,14 +5832,14 @@
       <c r="CG48" s="40"/>
     </row>
     <row r="49" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="64"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="38"/>
@@ -5885,18 +5923,18 @@
       <c r="CG49" s="40"/>
     </row>
     <row r="50" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="64"/>
-      <c r="B50" s="58" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="57" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="38"/>
@@ -5980,14 +6018,14 @@
       <c r="CG50" s="40"/>
     </row>
     <row r="51" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="64"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="38"/>
@@ -6071,11 +6109,11 @@
       <c r="CG51" s="40"/>
     </row>
     <row r="52" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="64"/>
-      <c r="B52" s="58" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="49" t="s">
@@ -6164,9 +6202,9 @@
       <c r="CG52" s="40"/>
     </row>
     <row r="53" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="50" t="s">
         <v>24</v>
       </c>
@@ -6253,18 +6291,18 @@
       <c r="CG53" s="40"/>
     </row>
     <row r="54" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="64"/>
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="59" t="s">
-        <v>71</v>
+      <c r="C54" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="38"/>
@@ -6348,14 +6386,14 @@
       <c r="CG54" s="40"/>
     </row>
     <row r="55" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="64"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="67"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="38"/>
@@ -6439,18 +6477,18 @@
       <c r="CG55" s="40"/>
     </row>
     <row r="56" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64"/>
-      <c r="B56" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>70</v>
+      <c r="A56" s="63"/>
+      <c r="B56" s="57">
+        <v>3.7</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="38"/>
@@ -6534,14 +6572,14 @@
       <c r="CG56" s="40"/>
     </row>
     <row r="57" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="64"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="38"/>
@@ -6624,19 +6662,19 @@
       <c r="CF57" s="40"/>
       <c r="CG57" s="40"/>
     </row>
-    <row r="58" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="64"/>
-      <c r="B58" s="58" t="s">
+    <row r="58" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="63"/>
+      <c r="B58" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="84" t="s">
         <v>69</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>61</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="38"/>
@@ -6719,386 +6757,390 @@
       <c r="CF58" s="40"/>
       <c r="CG58" s="40"/>
     </row>
-    <row r="59" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="65"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="67"/>
+    <row r="59" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="63"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="25"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26"/>
-      <c r="AJ59" s="26"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="25"/>
-      <c r="AM59" s="26"/>
-      <c r="AN59" s="26"/>
-      <c r="AO59" s="26"/>
-      <c r="AP59" s="26"/>
-      <c r="AQ59" s="26"/>
-      <c r="AR59" s="26"/>
-      <c r="AS59" s="27"/>
-      <c r="AT59" s="25"/>
-      <c r="AU59" s="26"/>
-      <c r="AV59" s="26"/>
-      <c r="AW59" s="26"/>
-      <c r="AX59" s="26"/>
-      <c r="AY59" s="26"/>
-      <c r="AZ59" s="26"/>
-      <c r="BA59" s="27"/>
-      <c r="BB59" s="25"/>
-      <c r="BC59" s="26"/>
-      <c r="BD59" s="26"/>
-      <c r="BE59" s="26"/>
-      <c r="BF59" s="26"/>
-      <c r="BG59" s="26"/>
-      <c r="BH59" s="26"/>
-      <c r="BI59" s="27"/>
-      <c r="BJ59" s="25"/>
-      <c r="BK59" s="26"/>
-      <c r="BL59" s="26"/>
-      <c r="BM59" s="26"/>
-      <c r="BN59" s="26"/>
-      <c r="BO59" s="26"/>
-      <c r="BP59" s="26"/>
-      <c r="BQ59" s="27"/>
-      <c r="BR59" s="25"/>
-      <c r="BS59" s="26"/>
-      <c r="BT59" s="26"/>
-      <c r="BU59" s="26"/>
-      <c r="BV59" s="26"/>
-      <c r="BW59" s="26"/>
-      <c r="BX59" s="26"/>
-      <c r="BY59" s="27"/>
-      <c r="BZ59" s="25"/>
-      <c r="CA59" s="26"/>
-      <c r="CB59" s="26"/>
-      <c r="CC59" s="26"/>
-      <c r="CD59" s="26"/>
-      <c r="CE59" s="26"/>
-      <c r="CF59" s="26"/>
-      <c r="CG59" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="41"/>
+      <c r="AE59" s="40"/>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="47"/>
+      <c r="AL59" s="41"/>
+      <c r="AM59" s="40"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="40"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="40"/>
+      <c r="AR59" s="40"/>
+      <c r="AS59" s="47"/>
+      <c r="AT59" s="41"/>
+      <c r="AU59" s="40"/>
+      <c r="AV59" s="40"/>
+      <c r="AW59" s="40"/>
+      <c r="AX59" s="40"/>
+      <c r="AY59" s="40"/>
+      <c r="AZ59" s="40"/>
+      <c r="BA59" s="47"/>
+      <c r="BB59" s="41"/>
+      <c r="BC59" s="40"/>
+      <c r="BD59" s="40"/>
+      <c r="BE59" s="40"/>
+      <c r="BF59" s="40"/>
+      <c r="BG59" s="40"/>
+      <c r="BH59" s="40"/>
+      <c r="BI59" s="47"/>
+      <c r="BJ59" s="41"/>
+      <c r="BK59" s="40"/>
+      <c r="BL59" s="40"/>
+      <c r="BM59" s="40"/>
+      <c r="BN59" s="40"/>
+      <c r="BO59" s="40"/>
+      <c r="BP59" s="40"/>
+      <c r="BQ59" s="47"/>
+      <c r="BR59" s="41"/>
+      <c r="BS59" s="40"/>
+      <c r="BT59" s="40"/>
+      <c r="BU59" s="40"/>
+      <c r="BV59" s="40"/>
+      <c r="BW59" s="40"/>
+      <c r="BX59" s="40"/>
+      <c r="BY59" s="47"/>
+      <c r="BZ59" s="41"/>
+      <c r="CA59" s="40"/>
+      <c r="CB59" s="40"/>
+      <c r="CC59" s="40"/>
+      <c r="CD59" s="40"/>
+      <c r="CE59" s="40"/>
+      <c r="CF59" s="40"/>
+      <c r="CG59" s="40"/>
     </row>
-    <row r="60" spans="1:85" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="52" t="s">
+    <row r="60" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="63"/>
+      <c r="B60" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="31"/>
-      <c r="AF60" s="31"/>
-      <c r="AG60" s="31"/>
-      <c r="AH60" s="31"/>
-      <c r="AI60" s="31"/>
-      <c r="AJ60" s="31"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="31"/>
-      <c r="AO60" s="31"/>
-      <c r="AP60" s="31"/>
-      <c r="AQ60" s="31"/>
-      <c r="AR60" s="31"/>
-      <c r="AS60" s="44"/>
-      <c r="AT60" s="33"/>
-      <c r="AU60" s="31"/>
-      <c r="AV60" s="31"/>
-      <c r="AW60" s="31"/>
-      <c r="AX60" s="31"/>
-      <c r="AY60" s="31"/>
-      <c r="AZ60" s="31"/>
-      <c r="BA60" s="44"/>
-      <c r="BB60" s="33"/>
-      <c r="BC60" s="31"/>
-      <c r="BD60" s="31"/>
-      <c r="BE60" s="31"/>
-      <c r="BF60" s="31"/>
-      <c r="BG60" s="31"/>
-      <c r="BH60" s="31"/>
-      <c r="BI60" s="44"/>
-      <c r="BJ60" s="33"/>
-      <c r="BK60" s="31"/>
-      <c r="BL60" s="31"/>
-      <c r="BM60" s="31"/>
-      <c r="BN60" s="31"/>
-      <c r="BO60" s="31"/>
-      <c r="BP60" s="31"/>
-      <c r="BQ60" s="44"/>
-      <c r="BR60" s="33"/>
-      <c r="BS60" s="31"/>
-      <c r="BT60" s="31"/>
-      <c r="BU60" s="31"/>
-      <c r="BV60" s="31"/>
-      <c r="BW60" s="31"/>
-      <c r="BX60" s="31"/>
-      <c r="BY60" s="44"/>
-      <c r="BZ60" s="33"/>
-      <c r="CA60" s="31"/>
-      <c r="CB60" s="31"/>
-      <c r="CC60" s="31"/>
-      <c r="CD60" s="31"/>
-      <c r="CE60" s="31"/>
-      <c r="CF60" s="44"/>
-      <c r="CG60" s="31"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="41"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="47"/>
+      <c r="AT60" s="41"/>
+      <c r="AU60" s="40"/>
+      <c r="AV60" s="40"/>
+      <c r="AW60" s="40"/>
+      <c r="AX60" s="40"/>
+      <c r="AY60" s="40"/>
+      <c r="AZ60" s="40"/>
+      <c r="BA60" s="47"/>
+      <c r="BB60" s="41"/>
+      <c r="BC60" s="40"/>
+      <c r="BD60" s="40"/>
+      <c r="BE60" s="40"/>
+      <c r="BF60" s="40"/>
+      <c r="BG60" s="40"/>
+      <c r="BH60" s="40"/>
+      <c r="BI60" s="47"/>
+      <c r="BJ60" s="41"/>
+      <c r="BK60" s="40"/>
+      <c r="BL60" s="40"/>
+      <c r="BM60" s="40"/>
+      <c r="BN60" s="40"/>
+      <c r="BO60" s="40"/>
+      <c r="BP60" s="40"/>
+      <c r="BQ60" s="47"/>
+      <c r="BR60" s="41"/>
+      <c r="BS60" s="40"/>
+      <c r="BT60" s="40"/>
+      <c r="BU60" s="40"/>
+      <c r="BV60" s="40"/>
+      <c r="BW60" s="40"/>
+      <c r="BX60" s="40"/>
+      <c r="BY60" s="47"/>
+      <c r="BZ60" s="41"/>
+      <c r="CA60" s="40"/>
+      <c r="CB60" s="40"/>
+      <c r="CC60" s="40"/>
+      <c r="CD60" s="40"/>
+      <c r="CE60" s="40"/>
+      <c r="CF60" s="40"/>
+      <c r="CG60" s="40"/>
     </row>
     <row r="61" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="69"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="50" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="45"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40"/>
-      <c r="AH61" s="40"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="40"/>
-      <c r="AK61" s="45"/>
-      <c r="AL61" s="41"/>
-      <c r="AM61" s="40"/>
-      <c r="AN61" s="40"/>
-      <c r="AO61" s="40"/>
-      <c r="AP61" s="40"/>
-      <c r="AQ61" s="40"/>
-      <c r="AR61" s="40"/>
-      <c r="AS61" s="45"/>
-      <c r="AT61" s="41"/>
-      <c r="AU61" s="40"/>
-      <c r="AV61" s="40"/>
-      <c r="AW61" s="40"/>
-      <c r="AX61" s="40"/>
-      <c r="AY61" s="40"/>
-      <c r="AZ61" s="40"/>
-      <c r="BA61" s="45"/>
-      <c r="BB61" s="41"/>
-      <c r="BC61" s="40"/>
-      <c r="BD61" s="40"/>
-      <c r="BE61" s="40"/>
-      <c r="BF61" s="40"/>
-      <c r="BG61" s="40"/>
-      <c r="BH61" s="40"/>
-      <c r="BI61" s="45"/>
-      <c r="BJ61" s="41"/>
-      <c r="BK61" s="40"/>
-      <c r="BL61" s="40"/>
-      <c r="BM61" s="40"/>
-      <c r="BN61" s="40"/>
-      <c r="BO61" s="40"/>
-      <c r="BP61" s="40"/>
-      <c r="BQ61" s="45"/>
-      <c r="BR61" s="41"/>
-      <c r="BS61" s="40"/>
-      <c r="BT61" s="40"/>
-      <c r="BU61" s="40"/>
-      <c r="BV61" s="40"/>
-      <c r="BW61" s="40"/>
-      <c r="BX61" s="40"/>
-      <c r="BY61" s="45"/>
-      <c r="BZ61" s="41"/>
-      <c r="CA61" s="40"/>
-      <c r="CB61" s="40"/>
-      <c r="CC61" s="40"/>
-      <c r="CD61" s="40"/>
-      <c r="CE61" s="40"/>
-      <c r="CF61" s="45"/>
-      <c r="CG61" s="40"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="26"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="26"/>
+      <c r="AI61" s="26"/>
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="27"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="26"/>
+      <c r="AN61" s="26"/>
+      <c r="AO61" s="26"/>
+      <c r="AP61" s="26"/>
+      <c r="AQ61" s="26"/>
+      <c r="AR61" s="26"/>
+      <c r="AS61" s="27"/>
+      <c r="AT61" s="25"/>
+      <c r="AU61" s="26"/>
+      <c r="AV61" s="26"/>
+      <c r="AW61" s="26"/>
+      <c r="AX61" s="26"/>
+      <c r="AY61" s="26"/>
+      <c r="AZ61" s="26"/>
+      <c r="BA61" s="27"/>
+      <c r="BB61" s="25"/>
+      <c r="BC61" s="26"/>
+      <c r="BD61" s="26"/>
+      <c r="BE61" s="26"/>
+      <c r="BF61" s="26"/>
+      <c r="BG61" s="26"/>
+      <c r="BH61" s="26"/>
+      <c r="BI61" s="27"/>
+      <c r="BJ61" s="25"/>
+      <c r="BK61" s="26"/>
+      <c r="BL61" s="26"/>
+      <c r="BM61" s="26"/>
+      <c r="BN61" s="26"/>
+      <c r="BO61" s="26"/>
+      <c r="BP61" s="26"/>
+      <c r="BQ61" s="27"/>
+      <c r="BR61" s="25"/>
+      <c r="BS61" s="26"/>
+      <c r="BT61" s="26"/>
+      <c r="BU61" s="26"/>
+      <c r="BV61" s="26"/>
+      <c r="BW61" s="26"/>
+      <c r="BX61" s="26"/>
+      <c r="BY61" s="27"/>
+      <c r="BZ61" s="25"/>
+      <c r="CA61" s="26"/>
+      <c r="CB61" s="26"/>
+      <c r="CC61" s="26"/>
+      <c r="CD61" s="26"/>
+      <c r="CE61" s="26"/>
+      <c r="CF61" s="26"/>
+      <c r="CG61" s="26"/>
     </row>
-    <row r="62" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="69"/>
-      <c r="B62" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="49" t="s">
+    <row r="62" spans="1:85" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="47"/>
-      <c r="AD62" s="41"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="40"/>
-      <c r="AH62" s="40"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="47"/>
-      <c r="AL62" s="41"/>
-      <c r="AM62" s="40"/>
-      <c r="AN62" s="40"/>
-      <c r="AO62" s="40"/>
-      <c r="AP62" s="40"/>
-      <c r="AQ62" s="40"/>
-      <c r="AR62" s="40"/>
-      <c r="AS62" s="47"/>
-      <c r="AT62" s="41"/>
-      <c r="AU62" s="40"/>
-      <c r="AV62" s="40"/>
-      <c r="AW62" s="40"/>
-      <c r="AX62" s="40"/>
-      <c r="AY62" s="40"/>
-      <c r="AZ62" s="40"/>
-      <c r="BA62" s="47"/>
-      <c r="BB62" s="41"/>
-      <c r="BC62" s="40"/>
-      <c r="BD62" s="40"/>
-      <c r="BE62" s="40"/>
-      <c r="BF62" s="40"/>
-      <c r="BG62" s="40"/>
-      <c r="BH62" s="40"/>
-      <c r="BI62" s="47"/>
-      <c r="BJ62" s="41"/>
-      <c r="BK62" s="40"/>
-      <c r="BL62" s="40"/>
-      <c r="BM62" s="40"/>
-      <c r="BN62" s="40"/>
-      <c r="BO62" s="40"/>
-      <c r="BP62" s="40"/>
-      <c r="BQ62" s="47"/>
-      <c r="BR62" s="41"/>
-      <c r="BS62" s="40"/>
-      <c r="BT62" s="40"/>
-      <c r="BU62" s="40"/>
-      <c r="BV62" s="40"/>
-      <c r="BW62" s="40"/>
-      <c r="BX62" s="40"/>
-      <c r="BY62" s="47"/>
-      <c r="BZ62" s="41"/>
-      <c r="CA62" s="40"/>
-      <c r="CB62" s="40"/>
-      <c r="CC62" s="40"/>
-      <c r="CD62" s="40"/>
-      <c r="CE62" s="40"/>
-      <c r="CF62" s="40"/>
-      <c r="CG62" s="40"/>
+      <c r="E62" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="31"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="31"/>
+      <c r="AF62" s="31"/>
+      <c r="AG62" s="31"/>
+      <c r="AH62" s="31"/>
+      <c r="AI62" s="31"/>
+      <c r="AJ62" s="31"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="31"/>
+      <c r="AN62" s="31"/>
+      <c r="AO62" s="31"/>
+      <c r="AP62" s="31"/>
+      <c r="AQ62" s="31"/>
+      <c r="AR62" s="31"/>
+      <c r="AS62" s="44"/>
+      <c r="AT62" s="33"/>
+      <c r="AU62" s="31"/>
+      <c r="AV62" s="31"/>
+      <c r="AW62" s="31"/>
+      <c r="AX62" s="31"/>
+      <c r="AY62" s="31"/>
+      <c r="AZ62" s="31"/>
+      <c r="BA62" s="44"/>
+      <c r="BB62" s="33"/>
+      <c r="BC62" s="31"/>
+      <c r="BD62" s="31"/>
+      <c r="BE62" s="31"/>
+      <c r="BF62" s="31"/>
+      <c r="BG62" s="31"/>
+      <c r="BH62" s="31"/>
+      <c r="BI62" s="44"/>
+      <c r="BJ62" s="33"/>
+      <c r="BK62" s="31"/>
+      <c r="BL62" s="31"/>
+      <c r="BM62" s="31"/>
+      <c r="BN62" s="31"/>
+      <c r="BO62" s="31"/>
+      <c r="BP62" s="31"/>
+      <c r="BQ62" s="44"/>
+      <c r="BR62" s="33"/>
+      <c r="BS62" s="31"/>
+      <c r="BT62" s="31"/>
+      <c r="BU62" s="31"/>
+      <c r="BV62" s="31"/>
+      <c r="BW62" s="31"/>
+      <c r="BX62" s="31"/>
+      <c r="BY62" s="44"/>
+      <c r="BZ62" s="33"/>
+      <c r="CA62" s="31"/>
+      <c r="CB62" s="31"/>
+      <c r="CC62" s="31"/>
+      <c r="CD62" s="31"/>
+      <c r="CE62" s="31"/>
+      <c r="CF62" s="44"/>
+      <c r="CG62" s="31"/>
     </row>
     <row r="63" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="69"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="60"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="35"/>
+      <c r="E63" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="F63" s="43"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
@@ -7106,7 +7148,7 @@
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
-      <c r="M63" s="46"/>
+      <c r="M63" s="45"/>
       <c r="N63" s="41"/>
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
@@ -7114,7 +7156,7 @@
       <c r="R63" s="40"/>
       <c r="S63" s="40"/>
       <c r="T63" s="40"/>
-      <c r="U63" s="47"/>
+      <c r="U63" s="45"/>
       <c r="V63" s="41"/>
       <c r="W63" s="40"/>
       <c r="X63" s="40"/>
@@ -7122,7 +7164,7 @@
       <c r="Z63" s="40"/>
       <c r="AA63" s="40"/>
       <c r="AB63" s="40"/>
-      <c r="AC63" s="47"/>
+      <c r="AC63" s="45"/>
       <c r="AD63" s="41"/>
       <c r="AE63" s="40"/>
       <c r="AF63" s="40"/>
@@ -7130,7 +7172,7 @@
       <c r="AH63" s="40"/>
       <c r="AI63" s="40"/>
       <c r="AJ63" s="40"/>
-      <c r="AK63" s="47"/>
+      <c r="AK63" s="45"/>
       <c r="AL63" s="41"/>
       <c r="AM63" s="40"/>
       <c r="AN63" s="40"/>
@@ -7138,7 +7180,7 @@
       <c r="AP63" s="40"/>
       <c r="AQ63" s="40"/>
       <c r="AR63" s="40"/>
-      <c r="AS63" s="47"/>
+      <c r="AS63" s="45"/>
       <c r="AT63" s="41"/>
       <c r="AU63" s="40"/>
       <c r="AV63" s="40"/>
@@ -7146,7 +7188,7 @@
       <c r="AX63" s="40"/>
       <c r="AY63" s="40"/>
       <c r="AZ63" s="40"/>
-      <c r="BA63" s="47"/>
+      <c r="BA63" s="45"/>
       <c r="BB63" s="41"/>
       <c r="BC63" s="40"/>
       <c r="BD63" s="40"/>
@@ -7154,7 +7196,7 @@
       <c r="BF63" s="40"/>
       <c r="BG63" s="40"/>
       <c r="BH63" s="40"/>
-      <c r="BI63" s="47"/>
+      <c r="BI63" s="45"/>
       <c r="BJ63" s="41"/>
       <c r="BK63" s="40"/>
       <c r="BL63" s="40"/>
@@ -7162,7 +7204,7 @@
       <c r="BN63" s="40"/>
       <c r="BO63" s="40"/>
       <c r="BP63" s="40"/>
-      <c r="BQ63" s="47"/>
+      <c r="BQ63" s="45"/>
       <c r="BR63" s="41"/>
       <c r="BS63" s="40"/>
       <c r="BT63" s="40"/>
@@ -7170,30 +7212,28 @@
       <c r="BV63" s="40"/>
       <c r="BW63" s="40"/>
       <c r="BX63" s="40"/>
-      <c r="BY63" s="47"/>
+      <c r="BY63" s="45"/>
       <c r="BZ63" s="41"/>
       <c r="CA63" s="40"/>
       <c r="CB63" s="40"/>
       <c r="CC63" s="40"/>
       <c r="CD63" s="40"/>
       <c r="CE63" s="40"/>
-      <c r="CF63" s="40"/>
+      <c r="CF63" s="45"/>
       <c r="CG63" s="40"/>
     </row>
     <row r="64" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="69"/>
-      <c r="B64" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>58</v>
+      <c r="A64" s="75"/>
+      <c r="B64" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="D64" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="34" t="s">
-        <v>75</v>
-      </c>
+      <c r="E64" s="34"/>
       <c r="F64" s="43"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
@@ -7201,7 +7241,7 @@
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
-      <c r="M64" s="44"/>
+      <c r="M64" s="46"/>
       <c r="N64" s="41"/>
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
@@ -7209,7 +7249,7 @@
       <c r="R64" s="40"/>
       <c r="S64" s="40"/>
       <c r="T64" s="40"/>
-      <c r="U64" s="44"/>
+      <c r="U64" s="47"/>
       <c r="V64" s="41"/>
       <c r="W64" s="40"/>
       <c r="X64" s="40"/>
@@ -7217,7 +7257,7 @@
       <c r="Z64" s="40"/>
       <c r="AA64" s="40"/>
       <c r="AB64" s="40"/>
-      <c r="AC64" s="44"/>
+      <c r="AC64" s="47"/>
       <c r="AD64" s="41"/>
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
@@ -7225,7 +7265,7 @@
       <c r="AH64" s="40"/>
       <c r="AI64" s="40"/>
       <c r="AJ64" s="40"/>
-      <c r="AK64" s="44"/>
+      <c r="AK64" s="47"/>
       <c r="AL64" s="41"/>
       <c r="AM64" s="40"/>
       <c r="AN64" s="40"/>
@@ -7233,7 +7273,7 @@
       <c r="AP64" s="40"/>
       <c r="AQ64" s="40"/>
       <c r="AR64" s="40"/>
-      <c r="AS64" s="44"/>
+      <c r="AS64" s="47"/>
       <c r="AT64" s="41"/>
       <c r="AU64" s="40"/>
       <c r="AV64" s="40"/>
@@ -7241,7 +7281,7 @@
       <c r="AX64" s="40"/>
       <c r="AY64" s="40"/>
       <c r="AZ64" s="40"/>
-      <c r="BA64" s="44"/>
+      <c r="BA64" s="47"/>
       <c r="BB64" s="41"/>
       <c r="BC64" s="40"/>
       <c r="BD64" s="40"/>
@@ -7249,7 +7289,7 @@
       <c r="BF64" s="40"/>
       <c r="BG64" s="40"/>
       <c r="BH64" s="40"/>
-      <c r="BI64" s="44"/>
+      <c r="BI64" s="47"/>
       <c r="BJ64" s="41"/>
       <c r="BK64" s="40"/>
       <c r="BL64" s="40"/>
@@ -7257,7 +7297,7 @@
       <c r="BN64" s="40"/>
       <c r="BO64" s="40"/>
       <c r="BP64" s="40"/>
-      <c r="BQ64" s="44"/>
+      <c r="BQ64" s="47"/>
       <c r="BR64" s="41"/>
       <c r="BS64" s="40"/>
       <c r="BT64" s="40"/>
@@ -7265,26 +7305,24 @@
       <c r="BV64" s="40"/>
       <c r="BW64" s="40"/>
       <c r="BX64" s="40"/>
-      <c r="BY64" s="44"/>
+      <c r="BY64" s="47"/>
       <c r="BZ64" s="41"/>
       <c r="CA64" s="40"/>
       <c r="CB64" s="40"/>
       <c r="CC64" s="40"/>
       <c r="CD64" s="40"/>
       <c r="CE64" s="40"/>
-      <c r="CF64" s="44"/>
+      <c r="CF64" s="40"/>
       <c r="CG64" s="40"/>
     </row>
     <row r="65" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="51" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="E65" s="35"/>
       <c r="F65" s="43"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
@@ -7292,7 +7330,7 @@
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
-      <c r="M65" s="45"/>
+      <c r="M65" s="46"/>
       <c r="N65" s="41"/>
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
@@ -7300,7 +7338,7 @@
       <c r="R65" s="40"/>
       <c r="S65" s="40"/>
       <c r="T65" s="40"/>
-      <c r="U65" s="45"/>
+      <c r="U65" s="47"/>
       <c r="V65" s="41"/>
       <c r="W65" s="40"/>
       <c r="X65" s="40"/>
@@ -7308,7 +7346,7 @@
       <c r="Z65" s="40"/>
       <c r="AA65" s="40"/>
       <c r="AB65" s="40"/>
-      <c r="AC65" s="45"/>
+      <c r="AC65" s="47"/>
       <c r="AD65" s="41"/>
       <c r="AE65" s="40"/>
       <c r="AF65" s="40"/>
@@ -7316,7 +7354,7 @@
       <c r="AH65" s="40"/>
       <c r="AI65" s="40"/>
       <c r="AJ65" s="40"/>
-      <c r="AK65" s="45"/>
+      <c r="AK65" s="47"/>
       <c r="AL65" s="41"/>
       <c r="AM65" s="40"/>
       <c r="AN65" s="40"/>
@@ -7324,7 +7362,7 @@
       <c r="AP65" s="40"/>
       <c r="AQ65" s="40"/>
       <c r="AR65" s="40"/>
-      <c r="AS65" s="45"/>
+      <c r="AS65" s="47"/>
       <c r="AT65" s="41"/>
       <c r="AU65" s="40"/>
       <c r="AV65" s="40"/>
@@ -7332,7 +7370,7 @@
       <c r="AX65" s="40"/>
       <c r="AY65" s="40"/>
       <c r="AZ65" s="40"/>
-      <c r="BA65" s="45"/>
+      <c r="BA65" s="47"/>
       <c r="BB65" s="41"/>
       <c r="BC65" s="40"/>
       <c r="BD65" s="40"/>
@@ -7340,7 +7378,7 @@
       <c r="BF65" s="40"/>
       <c r="BG65" s="40"/>
       <c r="BH65" s="40"/>
-      <c r="BI65" s="45"/>
+      <c r="BI65" s="47"/>
       <c r="BJ65" s="41"/>
       <c r="BK65" s="40"/>
       <c r="BL65" s="40"/>
@@ -7348,7 +7386,7 @@
       <c r="BN65" s="40"/>
       <c r="BO65" s="40"/>
       <c r="BP65" s="40"/>
-      <c r="BQ65" s="45"/>
+      <c r="BQ65" s="47"/>
       <c r="BR65" s="41"/>
       <c r="BS65" s="40"/>
       <c r="BT65" s="40"/>
@@ -7356,28 +7394,214 @@
       <c r="BV65" s="40"/>
       <c r="BW65" s="40"/>
       <c r="BX65" s="40"/>
-      <c r="BY65" s="45"/>
+      <c r="BY65" s="47"/>
       <c r="BZ65" s="41"/>
       <c r="CA65" s="40"/>
       <c r="CB65" s="40"/>
       <c r="CC65" s="40"/>
       <c r="CD65" s="40"/>
       <c r="CE65" s="40"/>
-      <c r="CF65" s="45"/>
+      <c r="CF65" s="40"/>
       <c r="CG65" s="40"/>
     </row>
-    <row r="66" spans="1:85" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="75"/>
+      <c r="B66" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="41"/>
+      <c r="AE66" s="40"/>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="40"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="41"/>
+      <c r="AM66" s="40"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="40"/>
+      <c r="AP66" s="40"/>
+      <c r="AQ66" s="40"/>
+      <c r="AR66" s="40"/>
+      <c r="AS66" s="44"/>
+      <c r="AT66" s="41"/>
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="40"/>
+      <c r="AW66" s="40"/>
+      <c r="AX66" s="40"/>
+      <c r="AY66" s="40"/>
+      <c r="AZ66" s="40"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="41"/>
+      <c r="BC66" s="40"/>
+      <c r="BD66" s="40"/>
+      <c r="BE66" s="40"/>
+      <c r="BF66" s="40"/>
+      <c r="BG66" s="40"/>
+      <c r="BH66" s="40"/>
+      <c r="BI66" s="44"/>
+      <c r="BJ66" s="41"/>
+      <c r="BK66" s="40"/>
+      <c r="BL66" s="40"/>
+      <c r="BM66" s="40"/>
+      <c r="BN66" s="40"/>
+      <c r="BO66" s="40"/>
+      <c r="BP66" s="40"/>
+      <c r="BQ66" s="44"/>
+      <c r="BR66" s="41"/>
+      <c r="BS66" s="40"/>
+      <c r="BT66" s="40"/>
+      <c r="BU66" s="40"/>
+      <c r="BV66" s="40"/>
+      <c r="BW66" s="40"/>
+      <c r="BX66" s="40"/>
+      <c r="BY66" s="44"/>
+      <c r="BZ66" s="41"/>
+      <c r="CA66" s="40"/>
+      <c r="CB66" s="40"/>
+      <c r="CC66" s="40"/>
+      <c r="CD66" s="40"/>
+      <c r="CE66" s="40"/>
+      <c r="CF66" s="44"/>
+      <c r="CG66" s="40"/>
+    </row>
+    <row r="67" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="76"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
+      <c r="AB67" s="40"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="41"/>
+      <c r="AE67" s="40"/>
+      <c r="AF67" s="40"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="40"/>
+      <c r="AI67" s="40"/>
+      <c r="AJ67" s="40"/>
+      <c r="AK67" s="45"/>
+      <c r="AL67" s="41"/>
+      <c r="AM67" s="40"/>
+      <c r="AN67" s="40"/>
+      <c r="AO67" s="40"/>
+      <c r="AP67" s="40"/>
+      <c r="AQ67" s="40"/>
+      <c r="AR67" s="40"/>
+      <c r="AS67" s="45"/>
+      <c r="AT67" s="41"/>
+      <c r="AU67" s="40"/>
+      <c r="AV67" s="40"/>
+      <c r="AW67" s="40"/>
+      <c r="AX67" s="40"/>
+      <c r="AY67" s="40"/>
+      <c r="AZ67" s="40"/>
+      <c r="BA67" s="45"/>
+      <c r="BB67" s="41"/>
+      <c r="BC67" s="40"/>
+      <c r="BD67" s="40"/>
+      <c r="BE67" s="40"/>
+      <c r="BF67" s="40"/>
+      <c r="BG67" s="40"/>
+      <c r="BH67" s="40"/>
+      <c r="BI67" s="45"/>
+      <c r="BJ67" s="41"/>
+      <c r="BK67" s="40"/>
+      <c r="BL67" s="40"/>
+      <c r="BM67" s="40"/>
+      <c r="BN67" s="40"/>
+      <c r="BO67" s="40"/>
+      <c r="BP67" s="40"/>
+      <c r="BQ67" s="45"/>
+      <c r="BR67" s="41"/>
+      <c r="BS67" s="40"/>
+      <c r="BT67" s="40"/>
+      <c r="BU67" s="40"/>
+      <c r="BV67" s="40"/>
+      <c r="BW67" s="40"/>
+      <c r="BX67" s="40"/>
+      <c r="BY67" s="45"/>
+      <c r="BZ67" s="41"/>
+      <c r="CA67" s="40"/>
+      <c r="CB67" s="40"/>
+      <c r="CC67" s="40"/>
+      <c r="CD67" s="40"/>
+      <c r="CE67" s="40"/>
+      <c r="CF67" s="45"/>
+      <c r="CG67" s="40"/>
+    </row>
+    <row r="68" spans="1:85" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A44:A59"/>
+  <mergeCells count="87">
+    <mergeCell ref="A44:A61"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B20:B21"/>
@@ -7403,10 +7627,10 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
     <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="AD11:AK11"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="N11:U11"/>
@@ -7416,9 +7640,10 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A62:A67"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A30:A43"/>
     <mergeCell ref="B54:B55"/>
@@ -7433,6 +7658,7 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="BZ11:CG11"/>
     <mergeCell ref="A12:A29"/>
     <mergeCell ref="B12:B13"/>
@@ -7449,11 +7675,11 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F10:CG10"/>
     <mergeCell ref="AL11:AS11"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="BJ11:BQ11"/>
     <mergeCell ref="BR11:BY11"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2747123-C570-4E06-9D8D-BBB888017965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB890414-6194-48EE-8331-A5B1877C8C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Änderungen an der Dokumentation</t>
   </si>
   <si>
-    <t>Neue Projekt erstellen und konfigurieren</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Storyboard beschreiben</t>
+  </si>
+  <si>
+    <t>Projekt erstellen und konfigurieren</t>
   </si>
 </sst>
 </file>
@@ -1230,6 +1230,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,15 +1370,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,16 +1525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>596237</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209017</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>596236</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>181621</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>191699</xdr:rowOff>
+      <xdr:rowOff>206818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1549,8 +1549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21898690" y="9674111"/>
-          <a:ext cx="340195" cy="414003"/>
+          <a:off x="22670046" y="9507231"/>
+          <a:ext cx="341337" cy="406016"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1942,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:CG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG56" sqref="AG56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1962,22 +1962,22 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:85" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="H2" s="86" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="H2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="K2" s="90" t="s">
+      <c r="I2" s="89"/>
+      <c r="K2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -2005,15 +2005,15 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="K3" s="91" t="s">
+      <c r="I3" s="90"/>
+      <c r="K3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -2040,16 +2040,16 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="88"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -2077,16 +2077,16 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2110,17 +2110,17 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
+        <v>45071</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2178,219 +2178,219 @@
     </row>
     <row r="9" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:85" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="72"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="72"/>
-      <c r="BJ10" s="72"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="72"/>
-      <c r="BM10" s="72"/>
-      <c r="BN10" s="72"/>
-      <c r="BO10" s="72"/>
-      <c r="BP10" s="72"/>
-      <c r="BQ10" s="72"/>
-      <c r="BR10" s="72"/>
-      <c r="BS10" s="72"/>
-      <c r="BT10" s="72"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="72"/>
-      <c r="BW10" s="72"/>
-      <c r="BX10" s="72"/>
-      <c r="BY10" s="72"/>
-      <c r="BZ10" s="72"/>
-      <c r="CA10" s="72"/>
-      <c r="CB10" s="72"/>
-      <c r="CC10" s="72"/>
-      <c r="CD10" s="72"/>
-      <c r="CE10" s="72"/>
-      <c r="CF10" s="72"/>
-      <c r="CG10" s="73"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
+      <c r="BQ10" s="75"/>
+      <c r="BR10" s="75"/>
+      <c r="BS10" s="75"/>
+      <c r="BT10" s="75"/>
+      <c r="BU10" s="75"/>
+      <c r="BV10" s="75"/>
+      <c r="BW10" s="75"/>
+      <c r="BX10" s="75"/>
+      <c r="BY10" s="75"/>
+      <c r="BZ10" s="75"/>
+      <c r="CA10" s="75"/>
+      <c r="CB10" s="75"/>
+      <c r="CC10" s="75"/>
+      <c r="CD10" s="75"/>
+      <c r="CE10" s="75"/>
+      <c r="CF10" s="75"/>
+      <c r="CG10" s="76"/>
     </row>
     <row r="11" spans="1:85" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="83">
+      <c r="E11" s="73"/>
+      <c r="F11" s="86">
         <v>45068</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="59">
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="62">
         <v>45069</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="59">
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="62">
         <v>45071</v>
       </c>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="83">
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="86">
         <v>45072</v>
       </c>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="59">
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="62">
         <v>45073</v>
       </c>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="59">
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="62">
         <v>45075</v>
       </c>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="59">
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="62">
         <v>45076</v>
       </c>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="59">
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="62">
         <v>45077</v>
       </c>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
-      <c r="BP11" s="60"/>
-      <c r="BQ11" s="61"/>
-      <c r="BR11" s="59">
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="63"/>
+      <c r="BM11" s="63"/>
+      <c r="BN11" s="63"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="64"/>
+      <c r="BR11" s="62">
         <v>45078</v>
       </c>
-      <c r="BS11" s="60"/>
-      <c r="BT11" s="60"/>
-      <c r="BU11" s="60"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="60"/>
-      <c r="BY11" s="61"/>
-      <c r="BZ11" s="59">
+      <c r="BS11" s="63"/>
+      <c r="BT11" s="63"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="63"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="62">
         <v>45079</v>
       </c>
-      <c r="CA11" s="60"/>
-      <c r="CB11" s="60"/>
-      <c r="CC11" s="60"/>
-      <c r="CD11" s="60"/>
-      <c r="CE11" s="60"/>
-      <c r="CF11" s="60"/>
-      <c r="CG11" s="61"/>
+      <c r="CA11" s="63"/>
+      <c r="CB11" s="63"/>
+      <c r="CC11" s="63"/>
+      <c r="CD11" s="63"/>
+      <c r="CE11" s="63"/>
+      <c r="CF11" s="63"/>
+      <c r="CG11" s="64"/>
     </row>
     <row r="12" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="60" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2481,9 +2481,9 @@
       <c r="CG12" s="40"/>
     </row>
     <row r="13" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
@@ -2572,11 +2572,11 @@
       <c r="CG13" s="40"/>
     </row>
     <row r="14" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="49" t="s">
@@ -2667,9 +2667,9 @@
       <c r="CG14" s="40"/>
     </row>
     <row r="15" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
@@ -2758,11 +2758,11 @@
       <c r="CG15" s="40"/>
     </row>
     <row r="16" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63"/>
-      <c r="B16" s="79" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="60" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="49" t="s">
@@ -2853,9 +2853,9 @@
       <c r="CG16" s="40"/>
     </row>
     <row r="17" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="50" t="s">
         <v>24</v>
       </c>
@@ -2944,11 +2944,11 @@
       <c r="CG17" s="40"/>
     </row>
     <row r="18" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="60" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -3039,9 +3039,9 @@
       <c r="CG18" s="40"/>
     </row>
     <row r="19" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
@@ -3130,11 +3130,11 @@
       <c r="CG19" s="40"/>
     </row>
     <row r="20" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="49" t="s">
@@ -3225,9 +3225,9 @@
       <c r="CG20" s="40"/>
     </row>
     <row r="21" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
@@ -3316,11 +3316,11 @@
       <c r="CG21" s="40"/>
     </row>
     <row r="22" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="60" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -3411,9 +3411,9 @@
       <c r="CG22" s="40"/>
     </row>
     <row r="23" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="50" t="s">
         <v>24</v>
       </c>
@@ -3502,11 +3502,11 @@
       <c r="CG23" s="40"/>
     </row>
     <row r="24" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="79" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -3597,9 +3597,9 @@
       <c r="CG24" s="40"/>
     </row>
     <row r="25" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="58"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="50" t="s">
         <v>24</v>
       </c>
@@ -3688,11 +3688,11 @@
       <c r="CG25" s="40"/>
     </row>
     <row r="26" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="79" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="49" t="s">
@@ -3783,9 +3783,9 @@
       <c r="CG26" s="40"/>
     </row>
     <row r="27" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="50" t="s">
         <v>24</v>
       </c>
@@ -3874,11 +3874,11 @@
       <c r="CG27" s="40"/>
     </row>
     <row r="28" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="79" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="60" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="49" t="s">
@@ -3969,9 +3969,9 @@
       <c r="CG28" s="40"/>
     </row>
     <row r="29" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="51" t="s">
         <v>24</v>
       </c>
@@ -4060,13 +4060,13 @@
       <c r="CG29" s="26"/>
     </row>
     <row r="30" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="52" t="s">
@@ -4157,9 +4157,9 @@
       <c r="CG30" s="31"/>
     </row>
     <row r="31" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="50" t="s">
         <v>24</v>
       </c>
@@ -4247,11 +4247,11 @@
       <c r="CG31" s="40"/>
     </row>
     <row r="32" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63"/>
-      <c r="B32" s="77" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="49" t="s">
@@ -4342,9 +4342,9 @@
       <c r="CG32" s="40"/>
     </row>
     <row r="33" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="50" t="s">
         <v>24</v>
       </c>
@@ -4433,12 +4433,12 @@
       <c r="CG33" s="40"/>
     </row>
     <row r="34" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="63"/>
-      <c r="B34" s="77" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>90</v>
+      <c r="C34" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>23</v>
@@ -4528,9 +4528,9 @@
       <c r="CG34" s="40"/>
     </row>
     <row r="35" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="50" t="s">
         <v>24</v>
       </c>
@@ -4619,11 +4619,11 @@
       <c r="CG35" s="40"/>
     </row>
     <row r="36" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
-      <c r="B36" s="77" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -4714,9 +4714,9 @@
       <c r="CG36" s="40"/>
     </row>
     <row r="37" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="50" t="s">
         <v>24</v>
       </c>
@@ -4805,11 +4805,11 @@
       <c r="CG37" s="40"/>
     </row>
     <row r="38" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="63"/>
-      <c r="B38" s="77" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="60" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="49" t="s">
@@ -4900,9 +4900,9 @@
       <c r="CG38" s="40"/>
     </row>
     <row r="39" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="50" t="s">
         <v>24</v>
       </c>
@@ -4991,11 +4991,11 @@
       <c r="CG39" s="40"/>
     </row>
     <row r="40" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="63"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="60" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="49" t="s">
@@ -5086,13 +5086,13 @@
       <c r="CG40" s="40"/>
     </row>
     <row r="41" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="63"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="101" t="s">
+      <c r="E41" s="57" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="43"/>
@@ -5177,17 +5177,17 @@
       <c r="CG41" s="40"/>
     </row>
     <row r="42" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="63"/>
-      <c r="B42" s="57">
+      <c r="A42" s="66"/>
+      <c r="B42" s="60">
         <v>2.7</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="58" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="43"/>
@@ -5210,7 +5210,7 @@
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="44"/>
-      <c r="Z42" s="40"/>
+      <c r="Z42" s="44"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="40"/>
       <c r="AC42" s="47"/>
@@ -5272,9 +5272,9 @@
       <c r="CG42" s="40"/>
     </row>
     <row r="43" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="64"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="51" t="s">
         <v>24</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="45"/>
-      <c r="Z43" s="26"/>
+      <c r="Z43" s="45"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
       <c r="AC43" s="27"/>
@@ -5363,13 +5363,13 @@
       <c r="CG43" s="26"/>
     </row>
     <row r="44" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="87" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="52" t="s">
@@ -5460,9 +5460,9 @@
       <c r="CG44" s="31"/>
     </row>
     <row r="45" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="50" t="s">
         <v>24</v>
       </c>
@@ -5551,11 +5551,11 @@
       <c r="CG45" s="40"/>
     </row>
     <row r="46" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="63"/>
-      <c r="B46" s="79" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -5646,9 +5646,9 @@
       <c r="CG46" s="40"/>
     </row>
     <row r="47" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="50" t="s">
         <v>24</v>
       </c>
@@ -5737,12 +5737,12 @@
       <c r="CG47" s="40"/>
     </row>
     <row r="48" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="63"/>
-      <c r="B48" s="79" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>87</v>
+      <c r="C48" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>23</v>
@@ -5832,9 +5832,9 @@
       <c r="CG48" s="40"/>
     </row>
     <row r="49" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="63"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="50" t="s">
         <v>24</v>
       </c>
@@ -5923,18 +5923,18 @@
       <c r="CG49" s="40"/>
     </row>
     <row r="50" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="63"/>
-      <c r="B50" s="79" t="s">
+      <c r="A50" s="66"/>
+      <c r="B50" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="60" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="38"/>
@@ -5957,7 +5957,7 @@
       <c r="X50" s="40"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
+      <c r="AA50" s="44"/>
       <c r="AB50" s="40"/>
       <c r="AC50" s="47"/>
       <c r="AD50" s="41"/>
@@ -6018,14 +6018,14 @@
       <c r="CG50" s="40"/>
     </row>
     <row r="51" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="63"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="38"/>
@@ -6048,7 +6048,7 @@
       <c r="X51" s="40"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
+      <c r="AA51" s="45"/>
       <c r="AB51" s="40"/>
       <c r="AC51" s="47"/>
       <c r="AD51" s="41"/>
@@ -6109,17 +6109,19 @@
       <c r="CG51" s="40"/>
     </row>
     <row r="52" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="63"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="66"/>
+      <c r="B52" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="60" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="F52" s="43"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -6141,9 +6143,9 @@
       <c r="X52" s="40"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="47"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
       <c r="AD52" s="41"/>
       <c r="AE52" s="40"/>
       <c r="AF52" s="40"/>
@@ -6202,13 +6204,15 @@
       <c r="CG52" s="40"/>
     </row>
     <row r="53" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="63"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="35"/>
+      <c r="E53" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="F53" s="43"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
@@ -6230,9 +6234,9 @@
       <c r="X53" s="40"/>
       <c r="Y53" s="40"/>
       <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="47"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
       <c r="AD53" s="41"/>
       <c r="AE53" s="40"/>
       <c r="AF53" s="40"/>
@@ -6291,18 +6295,18 @@
       <c r="CG53" s="40"/>
     </row>
     <row r="54" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="63"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="66"/>
+      <c r="B54" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="60" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="38"/>
@@ -6386,14 +6390,14 @@
       <c r="CG54" s="40"/>
     </row>
     <row r="55" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="63"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="38"/>
@@ -6477,11 +6481,11 @@
       <c r="CG55" s="40"/>
     </row>
     <row r="56" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="63"/>
-      <c r="B56" s="57">
+      <c r="A56" s="66"/>
+      <c r="B56" s="60">
         <v>3.7</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="60" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="49" t="s">
@@ -6572,9 +6576,9 @@
       <c r="CG56" s="40"/>
     </row>
     <row r="57" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="63"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="51" t="s">
         <v>24</v>
       </c>
@@ -6663,11 +6667,11 @@
       <c r="CG57" s="40"/>
     </row>
     <row r="58" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="63"/>
-      <c r="B58" s="82" t="s">
+      <c r="A58" s="66"/>
+      <c r="B58" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="87" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="49" t="s">
@@ -6758,9 +6762,9 @@
       <c r="CG58" s="40"/>
     </row>
     <row r="59" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="63"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="51" t="s">
         <v>24</v>
       </c>
@@ -6849,11 +6853,11 @@
       <c r="CG59" s="40"/>
     </row>
     <row r="60" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="63"/>
-      <c r="B60" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="57" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="60" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="49" t="s">
@@ -6944,9 +6948,9 @@
       <c r="CG60" s="40"/>
     </row>
     <row r="61" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="62"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="51" t="s">
         <v>24</v>
       </c>
@@ -7035,13 +7039,13 @@
       <c r="CG61" s="26"/>
     </row>
     <row r="62" spans="1:85" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="87" t="s">
         <v>85</v>
       </c>
       <c r="D62" s="52" t="s">
@@ -7132,9 +7136,9 @@
       <c r="CG62" s="31"/>
     </row>
     <row r="63" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="75"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="81"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="50" t="s">
         <v>24</v>
       </c>
@@ -7223,17 +7227,19 @@
       <c r="CG63" s="40"/>
     </row>
     <row r="64" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="75"/>
-      <c r="B64" s="79" t="s">
+      <c r="A64" s="78"/>
+      <c r="B64" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="34"/>
+      <c r="E64" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="F64" s="43"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
@@ -7258,7 +7264,7 @@
       <c r="AA64" s="40"/>
       <c r="AB64" s="40"/>
       <c r="AC64" s="47"/>
-      <c r="AD64" s="41"/>
+      <c r="AD64" s="44"/>
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
       <c r="AG64" s="40"/>
@@ -7316,13 +7322,15 @@
       <c r="CG64" s="40"/>
     </row>
     <row r="65" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="75"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="58"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="35"/>
+      <c r="E65" s="35" t="s">
+        <v>77</v>
+      </c>
       <c r="F65" s="43"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
@@ -7347,7 +7355,7 @@
       <c r="AA65" s="40"/>
       <c r="AB65" s="40"/>
       <c r="AC65" s="47"/>
-      <c r="AD65" s="41"/>
+      <c r="AD65" s="45"/>
       <c r="AE65" s="40"/>
       <c r="AF65" s="40"/>
       <c r="AG65" s="40"/>
@@ -7405,11 +7413,11 @@
       <c r="CG65" s="40"/>
     </row>
     <row r="66" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="75"/>
-      <c r="B66" s="77" t="s">
+      <c r="A66" s="78"/>
+      <c r="B66" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="49" t="s">
@@ -7500,9 +7508,9 @@
       <c r="CG66" s="40"/>
     </row>
     <row r="67" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="76"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="51" t="s">
         <v>24</v>
       </c>

--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB890414-6194-48EE-8331-A5B1877C8C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12107B53-C077-4AF6-975E-FE3D102DA505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Projekt erstellen und konfigurieren</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1096,11 +1102,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1239,11 +1260,92 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1254,21 +1356,21 @@
     <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,86 +1392,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,16 +1553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>596236</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581118</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>12469</xdr:rowOff>
+      <xdr:rowOff>27588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>181621</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>206818</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166502</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1549,7 +1577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22670046" y="9507231"/>
+          <a:off x="24166832" y="9522350"/>
           <a:ext cx="341337" cy="406016"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1940,10 +1968,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CG68"/>
+  <dimension ref="A1:BY68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG56" sqref="AG56"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11:AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1958,26 +1986,26 @@
     <col min="46" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:85" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
+    <row r="2" spans="1:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="H2" s="89" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="H2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="K2" s="93" t="s">
+      <c r="I2" s="83"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -1995,7 +2023,7 @@
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
     </row>
-    <row r="3" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2005,15 +2033,15 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="K3" s="94" t="s">
+      <c r="I3" s="84"/>
+      <c r="K3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -2030,7 +2058,7 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
     </row>
-    <row r="4" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2040,16 +2068,16 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -2067,7 +2095,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
@@ -2077,16 +2105,16 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="94" t="s">
+      <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2104,23 +2132,23 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="102"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2146,7 +2174,7 @@
       <c r="AP6" s="19"/>
       <c r="AQ6" s="19"/>
     </row>
-    <row r="7" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="20"/>
@@ -2172,225 +2200,207 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
     </row>
-    <row r="8" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:85" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:85" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+    <row r="9" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:77" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74" t="s">
+      <c r="E10" s="99"/>
+      <c r="F10" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="75"/>
-      <c r="BU10" s="75"/>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="75"/>
-      <c r="BZ10" s="75"/>
-      <c r="CA10" s="75"/>
-      <c r="CB10" s="75"/>
-      <c r="CC10" s="75"/>
-      <c r="CD10" s="75"/>
-      <c r="CE10" s="75"/>
-      <c r="CF10" s="75"/>
-      <c r="CG10" s="76"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
+      <c r="BJ10" s="102"/>
+      <c r="BK10" s="102"/>
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="102"/>
+      <c r="BS10" s="102"/>
+      <c r="BT10" s="102"/>
+      <c r="BU10" s="102"/>
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="102"/>
+      <c r="BX10" s="102"/>
+      <c r="BY10" s="103"/>
     </row>
-    <row r="11" spans="1:85" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73" t="s">
+    <row r="11" spans="1:77" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="98"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="86">
+      <c r="E11" s="100"/>
+      <c r="F11" s="88">
         <v>45068</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="62">
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89">
         <v>45069</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="62">
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="89">
         <v>45071</v>
       </c>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="86">
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="88">
         <v>45072</v>
       </c>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="62">
-        <v>45073</v>
-      </c>
-      <c r="AM11" s="63"/>
-      <c r="AN11" s="63"/>
-      <c r="AO11" s="63"/>
-      <c r="AP11" s="63"/>
-      <c r="AQ11" s="63"/>
-      <c r="AR11" s="63"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="62">
-        <v>45075</v>
-      </c>
-      <c r="AU11" s="63"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="63"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="63"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="62">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="88"/>
+      <c r="AL11" s="89">
         <v>45076</v>
       </c>
-      <c r="BC11" s="63"/>
-      <c r="BD11" s="63"/>
-      <c r="BE11" s="63"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="63"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="62">
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="89">
+        <v>45076</v>
+      </c>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="89">
         <v>45077</v>
       </c>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="63"/>
-      <c r="BN11" s="63"/>
-      <c r="BO11" s="63"/>
-      <c r="BP11" s="63"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="62">
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="89">
         <v>45078</v>
       </c>
-      <c r="BS11" s="63"/>
-      <c r="BT11" s="63"/>
-      <c r="BU11" s="63"/>
-      <c r="BV11" s="63"/>
-      <c r="BW11" s="63"/>
-      <c r="BX11" s="63"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="62">
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="90"/>
+      <c r="BN11" s="90"/>
+      <c r="BO11" s="90"/>
+      <c r="BP11" s="90"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="89">
         <v>45079</v>
       </c>
-      <c r="CA11" s="63"/>
-      <c r="CB11" s="63"/>
-      <c r="CC11" s="63"/>
-      <c r="CD11" s="63"/>
-      <c r="CE11" s="63"/>
-      <c r="CF11" s="63"/>
-      <c r="CG11" s="64"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="90"/>
+      <c r="BU11" s="90"/>
+      <c r="BV11" s="90"/>
+      <c r="BW11" s="90"/>
+      <c r="BX11" s="90"/>
+      <c r="BY11" s="91"/>
     </row>
-    <row r="12" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="66" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2470,20 +2480,12 @@
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
       <c r="BX12" s="40"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="41"/>
-      <c r="CA12" s="40"/>
-      <c r="CB12" s="40"/>
-      <c r="CC12" s="40"/>
-      <c r="CD12" s="40"/>
-      <c r="CE12" s="40"/>
-      <c r="CF12" s="40"/>
-      <c r="CG12" s="40"/>
+      <c r="BY12" s="40"/>
     </row>
-    <row r="13" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="61"/>
+    <row r="13" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
@@ -2561,22 +2563,14 @@
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
       <c r="BX13" s="40"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="41"/>
-      <c r="CA13" s="40"/>
-      <c r="CB13" s="40"/>
-      <c r="CC13" s="40"/>
-      <c r="CD13" s="40"/>
-      <c r="CE13" s="40"/>
-      <c r="CF13" s="40"/>
-      <c r="CG13" s="40"/>
+      <c r="BY13" s="40"/>
     </row>
-    <row r="14" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
-      <c r="B14" s="82" t="s">
+    <row r="14" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="49" t="s">
@@ -2656,20 +2650,12 @@
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
       <c r="BX14" s="40"/>
-      <c r="BY14" s="47"/>
-      <c r="BZ14" s="41"/>
-      <c r="CA14" s="40"/>
-      <c r="CB14" s="40"/>
-      <c r="CC14" s="40"/>
-      <c r="CD14" s="40"/>
-      <c r="CE14" s="40"/>
-      <c r="CF14" s="40"/>
-      <c r="CG14" s="40"/>
+      <c r="BY14" s="40"/>
     </row>
-    <row r="15" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="61"/>
+    <row r="15" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
@@ -2747,22 +2733,14 @@
       <c r="BV15" s="40"/>
       <c r="BW15" s="40"/>
       <c r="BX15" s="40"/>
-      <c r="BY15" s="47"/>
-      <c r="BZ15" s="41"/>
-      <c r="CA15" s="40"/>
-      <c r="CB15" s="40"/>
-      <c r="CC15" s="40"/>
-      <c r="CD15" s="40"/>
-      <c r="CE15" s="40"/>
-      <c r="CF15" s="40"/>
-      <c r="CG15" s="40"/>
+      <c r="BY15" s="40"/>
     </row>
-    <row r="16" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
-      <c r="B16" s="82" t="s">
+    <row r="16" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
+      <c r="B16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="66" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="49" t="s">
@@ -2842,20 +2820,12 @@
       <c r="BV16" s="40"/>
       <c r="BW16" s="40"/>
       <c r="BX16" s="40"/>
-      <c r="BY16" s="47"/>
-      <c r="BZ16" s="41"/>
-      <c r="CA16" s="40"/>
-      <c r="CB16" s="40"/>
-      <c r="CC16" s="40"/>
-      <c r="CD16" s="40"/>
-      <c r="CE16" s="40"/>
-      <c r="CF16" s="40"/>
-      <c r="CG16" s="40"/>
+      <c r="BY16" s="40"/>
     </row>
-    <row r="17" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="61"/>
+    <row r="17" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="50" t="s">
         <v>24</v>
       </c>
@@ -2933,22 +2903,14 @@
       <c r="BV17" s="40"/>
       <c r="BW17" s="40"/>
       <c r="BX17" s="40"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="41"/>
-      <c r="CA17" s="40"/>
-      <c r="CB17" s="40"/>
-      <c r="CC17" s="40"/>
-      <c r="CD17" s="40"/>
-      <c r="CE17" s="40"/>
-      <c r="CF17" s="40"/>
-      <c r="CG17" s="40"/>
+      <c r="BY17" s="40"/>
     </row>
-    <row r="18" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
-      <c r="B18" s="82" t="s">
+    <row r="18" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="60"/>
+      <c r="B18" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="66" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -3028,20 +2990,12 @@
       <c r="BV18" s="40"/>
       <c r="BW18" s="40"/>
       <c r="BX18" s="40"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="41"/>
-      <c r="CA18" s="40"/>
-      <c r="CB18" s="40"/>
-      <c r="CC18" s="40"/>
-      <c r="CD18" s="40"/>
-      <c r="CE18" s="40"/>
-      <c r="CF18" s="40"/>
-      <c r="CG18" s="40"/>
+      <c r="BY18" s="40"/>
     </row>
-    <row r="19" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="61"/>
+    <row r="19" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
@@ -3119,22 +3073,14 @@
       <c r="BV19" s="40"/>
       <c r="BW19" s="40"/>
       <c r="BX19" s="40"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="41"/>
-      <c r="CA19" s="40"/>
-      <c r="CB19" s="40"/>
-      <c r="CC19" s="40"/>
-      <c r="CD19" s="40"/>
-      <c r="CE19" s="40"/>
-      <c r="CF19" s="40"/>
-      <c r="CG19" s="40"/>
+      <c r="BY19" s="40"/>
     </row>
-    <row r="20" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
-      <c r="B20" s="82" t="s">
+    <row r="20" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="60"/>
+      <c r="B20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="66" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="49" t="s">
@@ -3214,20 +3160,12 @@
       <c r="BV20" s="40"/>
       <c r="BW20" s="40"/>
       <c r="BX20" s="40"/>
-      <c r="BY20" s="47"/>
-      <c r="BZ20" s="41"/>
-      <c r="CA20" s="40"/>
-      <c r="CB20" s="40"/>
-      <c r="CC20" s="40"/>
-      <c r="CD20" s="40"/>
-      <c r="CE20" s="40"/>
-      <c r="CF20" s="40"/>
-      <c r="CG20" s="40"/>
+      <c r="BY20" s="40"/>
     </row>
-    <row r="21" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="66"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="61"/>
+    <row r="21" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
@@ -3305,22 +3243,14 @@
       <c r="BV21" s="40"/>
       <c r="BW21" s="40"/>
       <c r="BX21" s="40"/>
-      <c r="BY21" s="47"/>
-      <c r="BZ21" s="41"/>
-      <c r="CA21" s="40"/>
-      <c r="CB21" s="40"/>
-      <c r="CC21" s="40"/>
-      <c r="CD21" s="40"/>
-      <c r="CE21" s="40"/>
-      <c r="CF21" s="40"/>
-      <c r="CG21" s="40"/>
+      <c r="BY21" s="40"/>
     </row>
-    <row r="22" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
-      <c r="B22" s="82" t="s">
+    <row r="22" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="60"/>
+      <c r="B22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="66" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -3400,20 +3330,12 @@
       <c r="BV22" s="40"/>
       <c r="BW22" s="40"/>
       <c r="BX22" s="40"/>
-      <c r="BY22" s="47"/>
-      <c r="BZ22" s="41"/>
-      <c r="CA22" s="40"/>
-      <c r="CB22" s="40"/>
-      <c r="CC22" s="40"/>
-      <c r="CD22" s="40"/>
-      <c r="CE22" s="40"/>
-      <c r="CF22" s="40"/>
-      <c r="CG22" s="40"/>
+      <c r="BY22" s="40"/>
     </row>
-    <row r="23" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="61"/>
+    <row r="23" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="60"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="50" t="s">
         <v>24</v>
       </c>
@@ -3491,22 +3413,14 @@
       <c r="BV23" s="40"/>
       <c r="BW23" s="40"/>
       <c r="BX23" s="40"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="40"/>
-      <c r="CB23" s="40"/>
-      <c r="CC23" s="40"/>
-      <c r="CD23" s="40"/>
-      <c r="CE23" s="40"/>
-      <c r="CF23" s="40"/>
-      <c r="CG23" s="40"/>
+      <c r="BY23" s="40"/>
     </row>
-    <row r="24" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
-      <c r="B24" s="82" t="s">
+    <row r="24" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -3586,20 +3500,12 @@
       <c r="BV24" s="40"/>
       <c r="BW24" s="40"/>
       <c r="BX24" s="40"/>
-      <c r="BY24" s="47"/>
-      <c r="BZ24" s="41"/>
-      <c r="CA24" s="40"/>
-      <c r="CB24" s="40"/>
-      <c r="CC24" s="40"/>
-      <c r="CD24" s="40"/>
-      <c r="CE24" s="40"/>
-      <c r="CF24" s="40"/>
-      <c r="CG24" s="40"/>
+      <c r="BY24" s="40"/>
     </row>
-    <row r="25" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="66"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="61"/>
+    <row r="25" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="60"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="50" t="s">
         <v>24</v>
       </c>
@@ -3677,22 +3583,14 @@
       <c r="BV25" s="40"/>
       <c r="BW25" s="40"/>
       <c r="BX25" s="40"/>
-      <c r="BY25" s="47"/>
-      <c r="BZ25" s="41"/>
-      <c r="CA25" s="40"/>
-      <c r="CB25" s="40"/>
-      <c r="CC25" s="40"/>
-      <c r="CD25" s="40"/>
-      <c r="CE25" s="40"/>
-      <c r="CF25" s="40"/>
-      <c r="CG25" s="40"/>
+      <c r="BY25" s="40"/>
     </row>
-    <row r="26" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="66"/>
-      <c r="B26" s="82" t="s">
+    <row r="26" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="60"/>
+      <c r="B26" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="66" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="49" t="s">
@@ -3772,20 +3670,12 @@
       <c r="BV26" s="40"/>
       <c r="BW26" s="40"/>
       <c r="BX26" s="40"/>
-      <c r="BY26" s="47"/>
-      <c r="BZ26" s="41"/>
-      <c r="CA26" s="40"/>
-      <c r="CB26" s="40"/>
-      <c r="CC26" s="40"/>
-      <c r="CD26" s="40"/>
-      <c r="CE26" s="40"/>
-      <c r="CF26" s="40"/>
-      <c r="CG26" s="40"/>
+      <c r="BY26" s="40"/>
     </row>
-    <row r="27" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="66"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="61"/>
+    <row r="27" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="50" t="s">
         <v>24</v>
       </c>
@@ -3863,22 +3753,14 @@
       <c r="BV27" s="40"/>
       <c r="BW27" s="40"/>
       <c r="BX27" s="40"/>
-      <c r="BY27" s="47"/>
-      <c r="BZ27" s="41"/>
-      <c r="CA27" s="40"/>
-      <c r="CB27" s="40"/>
-      <c r="CC27" s="40"/>
-      <c r="CD27" s="40"/>
-      <c r="CE27" s="40"/>
-      <c r="CF27" s="40"/>
-      <c r="CG27" s="40"/>
+      <c r="BY27" s="40"/>
     </row>
-    <row r="28" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
-      <c r="B28" s="82" t="s">
+    <row r="28" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="66" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="49" t="s">
@@ -3958,20 +3840,12 @@
       <c r="BV28" s="40"/>
       <c r="BW28" s="40"/>
       <c r="BX28" s="40"/>
-      <c r="BY28" s="47"/>
-      <c r="BZ28" s="41"/>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40"/>
-      <c r="CD28" s="40"/>
-      <c r="CE28" s="40"/>
-      <c r="CF28" s="40"/>
-      <c r="CG28" s="40"/>
+      <c r="BY28" s="40"/>
     </row>
-    <row r="29" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="65"/>
+    <row r="29" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="61"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="51" t="s">
         <v>24</v>
       </c>
@@ -4049,24 +3923,16 @@
       <c r="BV29" s="26"/>
       <c r="BW29" s="26"/>
       <c r="BX29" s="26"/>
-      <c r="BY29" s="27"/>
-      <c r="BZ29" s="25"/>
-      <c r="CA29" s="26"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="26"/>
-      <c r="CD29" s="26"/>
-      <c r="CE29" s="26"/>
-      <c r="CF29" s="26"/>
-      <c r="CG29" s="26"/>
+      <c r="BY29" s="26"/>
     </row>
-    <row r="30" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="70" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="52" t="s">
@@ -4146,20 +4012,12 @@
       <c r="BV30" s="31"/>
       <c r="BW30" s="31"/>
       <c r="BX30" s="31"/>
-      <c r="BY30" s="32"/>
-      <c r="BZ30" s="33"/>
-      <c r="CA30" s="31"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-      <c r="CD30" s="31"/>
-      <c r="CE30" s="31"/>
-      <c r="CF30" s="31"/>
-      <c r="CG30" s="31"/>
+      <c r="BY30" s="31"/>
     </row>
-    <row r="31" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="61"/>
+    <row r="31" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="60"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="50" t="s">
         <v>24</v>
       </c>
@@ -4236,22 +4094,14 @@
       <c r="BV31" s="40"/>
       <c r="BW31" s="40"/>
       <c r="BX31" s="40"/>
-      <c r="BY31" s="47"/>
-      <c r="BZ31" s="41"/>
-      <c r="CA31" s="40"/>
-      <c r="CB31" s="40"/>
-      <c r="CC31" s="40"/>
-      <c r="CD31" s="40"/>
-      <c r="CE31" s="40"/>
-      <c r="CF31" s="40"/>
-      <c r="CG31" s="40"/>
+      <c r="BY31" s="40"/>
     </row>
-    <row r="32" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
-      <c r="B32" s="80" t="s">
+    <row r="32" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="60"/>
+      <c r="B32" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="66" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="49" t="s">
@@ -4331,20 +4181,12 @@
       <c r="BV32" s="40"/>
       <c r="BW32" s="40"/>
       <c r="BX32" s="40"/>
-      <c r="BY32" s="47"/>
-      <c r="BZ32" s="41"/>
-      <c r="CA32" s="40"/>
-      <c r="CB32" s="40"/>
-      <c r="CC32" s="40"/>
-      <c r="CD32" s="40"/>
-      <c r="CE32" s="40"/>
-      <c r="CF32" s="40"/>
-      <c r="CG32" s="40"/>
+      <c r="BY32" s="40"/>
     </row>
-    <row r="33" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="66"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="61"/>
+    <row r="33" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="60"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="50" t="s">
         <v>24</v>
       </c>
@@ -4422,22 +4264,14 @@
       <c r="BV33" s="40"/>
       <c r="BW33" s="40"/>
       <c r="BX33" s="40"/>
-      <c r="BY33" s="47"/>
-      <c r="BZ33" s="41"/>
-      <c r="CA33" s="40"/>
-      <c r="CB33" s="40"/>
-      <c r="CC33" s="40"/>
-      <c r="CD33" s="40"/>
-      <c r="CE33" s="40"/>
-      <c r="CF33" s="40"/>
-      <c r="CG33" s="40"/>
+      <c r="BY33" s="40"/>
     </row>
-    <row r="34" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="66"/>
-      <c r="B34" s="80" t="s">
+    <row r="34" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="60"/>
+      <c r="B34" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="66" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="49" t="s">
@@ -4517,20 +4351,12 @@
       <c r="BV34" s="40"/>
       <c r="BW34" s="40"/>
       <c r="BX34" s="40"/>
-      <c r="BY34" s="47"/>
-      <c r="BZ34" s="41"/>
-      <c r="CA34" s="40"/>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
-      <c r="CD34" s="40"/>
-      <c r="CE34" s="40"/>
-      <c r="CF34" s="40"/>
-      <c r="CG34" s="40"/>
+      <c r="BY34" s="40"/>
     </row>
-    <row r="35" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="66"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="61"/>
+    <row r="35" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="60"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="50" t="s">
         <v>24</v>
       </c>
@@ -4608,22 +4434,14 @@
       <c r="BV35" s="40"/>
       <c r="BW35" s="40"/>
       <c r="BX35" s="40"/>
-      <c r="BY35" s="47"/>
-      <c r="BZ35" s="41"/>
-      <c r="CA35" s="40"/>
-      <c r="CB35" s="40"/>
-      <c r="CC35" s="40"/>
-      <c r="CD35" s="40"/>
-      <c r="CE35" s="40"/>
-      <c r="CF35" s="40"/>
-      <c r="CG35" s="40"/>
+      <c r="BY35" s="40"/>
     </row>
-    <row r="36" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="66"/>
-      <c r="B36" s="80" t="s">
+    <row r="36" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="60"/>
+      <c r="B36" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="66" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -4695,7 +4513,7 @@
       <c r="BN36" s="40"/>
       <c r="BO36" s="40"/>
       <c r="BP36" s="40"/>
-      <c r="BQ36" s="47"/>
+      <c r="BQ36" s="39"/>
       <c r="BR36" s="41"/>
       <c r="BS36" s="40"/>
       <c r="BT36" s="40"/>
@@ -4703,20 +4521,12 @@
       <c r="BV36" s="40"/>
       <c r="BW36" s="40"/>
       <c r="BX36" s="40"/>
-      <c r="BY36" s="39"/>
-      <c r="BZ36" s="41"/>
-      <c r="CA36" s="40"/>
-      <c r="CB36" s="40"/>
-      <c r="CC36" s="40"/>
-      <c r="CD36" s="40"/>
-      <c r="CE36" s="40"/>
-      <c r="CF36" s="40"/>
-      <c r="CG36" s="40"/>
+      <c r="BY36" s="40"/>
     </row>
-    <row r="37" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="66"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="61"/>
+    <row r="37" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="60"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="50" t="s">
         <v>24</v>
       </c>
@@ -4785,31 +4595,23 @@
       <c r="BM37" s="40"/>
       <c r="BN37" s="40"/>
       <c r="BO37" s="40"/>
-      <c r="BP37" s="40"/>
-      <c r="BQ37" s="47"/>
+      <c r="BP37" s="42"/>
+      <c r="BQ37" s="48"/>
       <c r="BR37" s="41"/>
       <c r="BS37" s="40"/>
       <c r="BT37" s="40"/>
       <c r="BU37" s="40"/>
       <c r="BV37" s="40"/>
       <c r="BW37" s="40"/>
-      <c r="BX37" s="42"/>
-      <c r="BY37" s="48"/>
-      <c r="BZ37" s="41"/>
-      <c r="CA37" s="40"/>
-      <c r="CB37" s="40"/>
-      <c r="CC37" s="40"/>
-      <c r="CD37" s="40"/>
-      <c r="CE37" s="40"/>
-      <c r="CF37" s="40"/>
-      <c r="CG37" s="40"/>
+      <c r="BX37" s="40"/>
+      <c r="BY37" s="40"/>
     </row>
-    <row r="38" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="66"/>
-      <c r="B38" s="80" t="s">
+    <row r="38" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="60"/>
+      <c r="B38" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="66" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="49" t="s">
@@ -4834,9 +4636,9 @@
       <c r="S38" s="56"/>
       <c r="T38" s="40"/>
       <c r="U38" s="47"/>
-      <c r="V38" s="44"/>
+      <c r="V38" s="41"/>
       <c r="W38" s="44"/>
-      <c r="X38" s="40"/>
+      <c r="X38" s="44"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40"/>
       <c r="AA38" s="40"/>
@@ -4889,20 +4691,12 @@
       <c r="BV38" s="40"/>
       <c r="BW38" s="40"/>
       <c r="BX38" s="40"/>
-      <c r="BY38" s="47"/>
-      <c r="BZ38" s="41"/>
-      <c r="CA38" s="40"/>
-      <c r="CB38" s="40"/>
-      <c r="CC38" s="40"/>
-      <c r="CD38" s="40"/>
-      <c r="CE38" s="40"/>
-      <c r="CF38" s="40"/>
-      <c r="CG38" s="40"/>
+      <c r="BY38" s="40"/>
     </row>
-    <row r="39" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="66"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="61"/>
+    <row r="39" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="60"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="50" t="s">
         <v>24</v>
       </c>
@@ -4925,9 +4719,9 @@
       <c r="S39" s="56"/>
       <c r="T39" s="40"/>
       <c r="U39" s="47"/>
-      <c r="V39" s="45"/>
+      <c r="V39" s="41"/>
       <c r="W39" s="45"/>
-      <c r="X39" s="40"/>
+      <c r="X39" s="45"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
@@ -4980,22 +4774,14 @@
       <c r="BV39" s="40"/>
       <c r="BW39" s="40"/>
       <c r="BX39" s="40"/>
-      <c r="BY39" s="47"/>
-      <c r="BZ39" s="41"/>
-      <c r="CA39" s="40"/>
-      <c r="CB39" s="40"/>
-      <c r="CC39" s="40"/>
-      <c r="CD39" s="40"/>
-      <c r="CE39" s="40"/>
-      <c r="CF39" s="40"/>
-      <c r="CG39" s="40"/>
+      <c r="BY39" s="40"/>
     </row>
-    <row r="40" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="66"/>
-      <c r="B40" s="60" t="s">
+    <row r="40" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="60"/>
+      <c r="B40" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="66" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="49" t="s">
@@ -5021,10 +4807,10 @@
       <c r="T40" s="56"/>
       <c r="U40" s="47"/>
       <c r="V40" s="41"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="44"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
       <c r="Y40" s="44"/>
-      <c r="Z40" s="40"/>
+      <c r="Z40" s="44"/>
       <c r="AA40" s="40"/>
       <c r="AB40" s="40"/>
       <c r="AC40" s="47"/>
@@ -5075,20 +4861,12 @@
       <c r="BV40" s="40"/>
       <c r="BW40" s="40"/>
       <c r="BX40" s="40"/>
-      <c r="BY40" s="47"/>
-      <c r="BZ40" s="41"/>
-      <c r="CA40" s="40"/>
-      <c r="CB40" s="40"/>
-      <c r="CC40" s="40"/>
-      <c r="CD40" s="40"/>
-      <c r="CE40" s="40"/>
-      <c r="CF40" s="40"/>
-      <c r="CG40" s="40"/>
+      <c r="BY40" s="40"/>
     </row>
-    <row r="41" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="66"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
+    <row r="41" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="60"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="50" t="s">
         <v>24</v>
       </c>
@@ -5112,10 +4890,10 @@
       <c r="T41" s="56"/>
       <c r="U41" s="47"/>
       <c r="V41" s="41"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="45"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
       <c r="Y41" s="45"/>
-      <c r="Z41" s="40"/>
+      <c r="Z41" s="45"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="40"/>
       <c r="AC41" s="47"/>
@@ -5166,22 +4944,14 @@
       <c r="BV41" s="40"/>
       <c r="BW41" s="40"/>
       <c r="BX41" s="40"/>
-      <c r="BY41" s="47"/>
-      <c r="BZ41" s="41"/>
-      <c r="CA41" s="40"/>
-      <c r="CB41" s="40"/>
-      <c r="CC41" s="40"/>
-      <c r="CD41" s="40"/>
-      <c r="CE41" s="40"/>
-      <c r="CF41" s="40"/>
-      <c r="CG41" s="40"/>
+      <c r="BY41" s="40"/>
     </row>
-    <row r="42" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="66"/>
-      <c r="B42" s="60">
+    <row r="42" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="60"/>
+      <c r="B42" s="66">
         <v>2.7</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="66" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="59" t="s">
@@ -5209,10 +4979,10 @@
       <c r="V42" s="41"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
       <c r="AC42" s="47"/>
       <c r="AD42" s="41"/>
       <c r="AE42" s="40"/>
@@ -5261,20 +5031,12 @@
       <c r="BV42" s="40"/>
       <c r="BW42" s="40"/>
       <c r="BX42" s="40"/>
-      <c r="BY42" s="47"/>
-      <c r="BZ42" s="41"/>
-      <c r="CA42" s="40"/>
-      <c r="CB42" s="40"/>
-      <c r="CC42" s="40"/>
-      <c r="CD42" s="40"/>
-      <c r="CE42" s="40"/>
-      <c r="CF42" s="40"/>
-      <c r="CG42" s="40"/>
+      <c r="BY42" s="40"/>
     </row>
-    <row r="43" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="67"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+    <row r="43" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="61"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="51" t="s">
         <v>24</v>
       </c>
@@ -5300,10 +5062,10 @@
       <c r="V43" s="25"/>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
       <c r="AC43" s="27"/>
       <c r="AD43" s="25"/>
       <c r="AE43" s="26"/>
@@ -5352,24 +5114,16 @@
       <c r="BV43" s="26"/>
       <c r="BW43" s="26"/>
       <c r="BX43" s="26"/>
-      <c r="BY43" s="27"/>
-      <c r="BZ43" s="25"/>
-      <c r="CA43" s="26"/>
-      <c r="CB43" s="26"/>
-      <c r="CC43" s="26"/>
-      <c r="CD43" s="26"/>
-      <c r="CE43" s="26"/>
-      <c r="CF43" s="26"/>
-      <c r="CG43" s="26"/>
+      <c r="BY43" s="26"/>
     </row>
-    <row r="44" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="66" t="s">
+    <row r="44" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="62" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="52" t="s">
@@ -5449,20 +5203,12 @@
       <c r="BV44" s="31"/>
       <c r="BW44" s="31"/>
       <c r="BX44" s="31"/>
-      <c r="BY44" s="32"/>
-      <c r="BZ44" s="33"/>
-      <c r="CA44" s="31"/>
-      <c r="CB44" s="31"/>
-      <c r="CC44" s="31"/>
-      <c r="CD44" s="31"/>
-      <c r="CE44" s="31"/>
-      <c r="CF44" s="31"/>
-      <c r="CG44" s="31"/>
+      <c r="BY44" s="31"/>
     </row>
-    <row r="45" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="66"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="61"/>
+    <row r="45" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="60"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="50" t="s">
         <v>24</v>
       </c>
@@ -5540,22 +5286,14 @@
       <c r="BV45" s="40"/>
       <c r="BW45" s="40"/>
       <c r="BX45" s="40"/>
-      <c r="BY45" s="47"/>
-      <c r="BZ45" s="41"/>
-      <c r="CA45" s="40"/>
-      <c r="CB45" s="40"/>
-      <c r="CC45" s="40"/>
-      <c r="CD45" s="40"/>
-      <c r="CE45" s="40"/>
-      <c r="CF45" s="40"/>
-      <c r="CG45" s="40"/>
+      <c r="BY45" s="40"/>
     </row>
-    <row r="46" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="66"/>
-      <c r="B46" s="82" t="s">
+    <row r="46" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="60"/>
+      <c r="B46" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -5635,20 +5373,12 @@
       <c r="BV46" s="40"/>
       <c r="BW46" s="40"/>
       <c r="BX46" s="40"/>
-      <c r="BY46" s="47"/>
-      <c r="BZ46" s="41"/>
-      <c r="CA46" s="40"/>
-      <c r="CB46" s="40"/>
-      <c r="CC46" s="40"/>
-      <c r="CD46" s="40"/>
-      <c r="CE46" s="40"/>
-      <c r="CF46" s="40"/>
-      <c r="CG46" s="40"/>
+      <c r="BY46" s="40"/>
     </row>
-    <row r="47" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="66"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="61"/>
+    <row r="47" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="60"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="50" t="s">
         <v>24</v>
       </c>
@@ -5726,22 +5456,14 @@
       <c r="BV47" s="40"/>
       <c r="BW47" s="40"/>
       <c r="BX47" s="40"/>
-      <c r="BY47" s="47"/>
-      <c r="BZ47" s="41"/>
-      <c r="CA47" s="40"/>
-      <c r="CB47" s="40"/>
-      <c r="CC47" s="40"/>
-      <c r="CD47" s="40"/>
-      <c r="CE47" s="40"/>
-      <c r="CF47" s="40"/>
-      <c r="CG47" s="40"/>
+      <c r="BY47" s="40"/>
     </row>
-    <row r="48" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
-      <c r="B48" s="82" t="s">
+    <row r="48" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="60"/>
+      <c r="B48" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="66" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="49" t="s">
@@ -5770,10 +5492,10 @@
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
       <c r="Y48" s="40"/>
-      <c r="Z48" s="44"/>
+      <c r="Z48" s="40"/>
       <c r="AA48" s="40"/>
       <c r="AB48" s="40"/>
-      <c r="AC48" s="47"/>
+      <c r="AC48" s="54"/>
       <c r="AD48" s="41"/>
       <c r="AE48" s="40"/>
       <c r="AF48" s="40"/>
@@ -5821,20 +5543,12 @@
       <c r="BV48" s="40"/>
       <c r="BW48" s="40"/>
       <c r="BX48" s="40"/>
-      <c r="BY48" s="47"/>
-      <c r="BZ48" s="41"/>
-      <c r="CA48" s="40"/>
-      <c r="CB48" s="40"/>
-      <c r="CC48" s="40"/>
-      <c r="CD48" s="40"/>
-      <c r="CE48" s="40"/>
-      <c r="CF48" s="40"/>
-      <c r="CG48" s="40"/>
+      <c r="BY48" s="40"/>
     </row>
-    <row r="49" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="66"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="61"/>
+    <row r="49" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="60"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="50" t="s">
         <v>24</v>
       </c>
@@ -5861,10 +5575,10 @@
       <c r="W49" s="40"/>
       <c r="X49" s="40"/>
       <c r="Y49" s="40"/>
-      <c r="Z49" s="45"/>
+      <c r="Z49" s="40"/>
       <c r="AA49" s="40"/>
       <c r="AB49" s="40"/>
-      <c r="AC49" s="47"/>
+      <c r="AC49" s="55"/>
       <c r="AD49" s="41"/>
       <c r="AE49" s="40"/>
       <c r="AF49" s="40"/>
@@ -5912,29 +5626,21 @@
       <c r="BV49" s="40"/>
       <c r="BW49" s="40"/>
       <c r="BX49" s="40"/>
-      <c r="BY49" s="47"/>
-      <c r="BZ49" s="41"/>
-      <c r="CA49" s="40"/>
-      <c r="CB49" s="40"/>
-      <c r="CC49" s="40"/>
-      <c r="CD49" s="40"/>
-      <c r="CE49" s="40"/>
-      <c r="CF49" s="40"/>
-      <c r="CG49" s="40"/>
+      <c r="BY49" s="40"/>
     </row>
-    <row r="50" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="66"/>
-      <c r="B50" s="82" t="s">
+    <row r="50" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="60"/>
+      <c r="B50" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="38"/>
@@ -5957,10 +5663,10 @@
       <c r="X50" s="40"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="40"/>
-      <c r="AA50" s="44"/>
+      <c r="AA50" s="40"/>
       <c r="AB50" s="40"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="41"/>
+      <c r="AC50" s="104"/>
+      <c r="AD50" s="105"/>
       <c r="AE50" s="40"/>
       <c r="AF50" s="40"/>
       <c r="AG50" s="40"/>
@@ -5968,7 +5674,7 @@
       <c r="AI50" s="40"/>
       <c r="AJ50" s="40"/>
       <c r="AK50" s="47"/>
-      <c r="AL50" s="41"/>
+      <c r="AL50" s="44"/>
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
       <c r="AO50" s="40"/>
@@ -6007,25 +5713,17 @@
       <c r="BV50" s="40"/>
       <c r="BW50" s="40"/>
       <c r="BX50" s="40"/>
-      <c r="BY50" s="47"/>
-      <c r="BZ50" s="41"/>
-      <c r="CA50" s="40"/>
-      <c r="CB50" s="40"/>
-      <c r="CC50" s="40"/>
-      <c r="CD50" s="40"/>
-      <c r="CE50" s="40"/>
-      <c r="CF50" s="40"/>
-      <c r="CG50" s="40"/>
+      <c r="BY50" s="40"/>
     </row>
-    <row r="51" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="66"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="61"/>
+    <row r="51" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="60"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="38"/>
@@ -6048,10 +5746,10 @@
       <c r="X51" s="40"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="40"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="47"/>
-      <c r="AD51" s="41"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="105"/>
       <c r="AE51" s="40"/>
       <c r="AF51" s="40"/>
       <c r="AG51" s="40"/>
@@ -6059,7 +5757,7 @@
       <c r="AI51" s="40"/>
       <c r="AJ51" s="40"/>
       <c r="AK51" s="47"/>
-      <c r="AL51" s="41"/>
+      <c r="AL51" s="45"/>
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
       <c r="AO51" s="40"/>
@@ -6098,29 +5796,21 @@
       <c r="BV51" s="40"/>
       <c r="BW51" s="40"/>
       <c r="BX51" s="40"/>
-      <c r="BY51" s="47"/>
-      <c r="BZ51" s="41"/>
-      <c r="CA51" s="40"/>
-      <c r="CB51" s="40"/>
-      <c r="CC51" s="40"/>
-      <c r="CD51" s="40"/>
-      <c r="CE51" s="40"/>
-      <c r="CF51" s="40"/>
-      <c r="CG51" s="40"/>
+      <c r="BY51" s="40"/>
     </row>
-    <row r="52" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="66"/>
-      <c r="B52" s="82" t="s">
+    <row r="52" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="60"/>
+      <c r="B52" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="66" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="38"/>
@@ -6143,21 +5833,21 @@
       <c r="X52" s="40"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="40"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="47"/>
       <c r="AD52" s="41"/>
       <c r="AE52" s="40"/>
       <c r="AF52" s="40"/>
       <c r="AG52" s="40"/>
-      <c r="AH52" s="40"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="47"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="44"/>
       <c r="AL52" s="41"/>
-      <c r="AM52" s="40"/>
-      <c r="AN52" s="40"/>
-      <c r="AO52" s="40"/>
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="44"/>
       <c r="AP52" s="40"/>
       <c r="AQ52" s="40"/>
       <c r="AR52" s="40"/>
@@ -6193,25 +5883,17 @@
       <c r="BV52" s="40"/>
       <c r="BW52" s="40"/>
       <c r="BX52" s="40"/>
-      <c r="BY52" s="47"/>
-      <c r="BZ52" s="41"/>
-      <c r="CA52" s="40"/>
-      <c r="CB52" s="40"/>
-      <c r="CC52" s="40"/>
-      <c r="CD52" s="40"/>
-      <c r="CE52" s="40"/>
-      <c r="CF52" s="40"/>
-      <c r="CG52" s="40"/>
+      <c r="BY52" s="40"/>
     </row>
-    <row r="53" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="66"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="61"/>
+    <row r="53" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="60"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="38"/>
@@ -6234,21 +5916,21 @@
       <c r="X53" s="40"/>
       <c r="Y53" s="40"/>
       <c r="Z53" s="40"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="47"/>
       <c r="AD53" s="41"/>
       <c r="AE53" s="40"/>
       <c r="AF53" s="40"/>
       <c r="AG53" s="40"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="47"/>
+      <c r="AH53" s="45"/>
+      <c r="AI53" s="45"/>
+      <c r="AJ53" s="45"/>
+      <c r="AK53" s="45"/>
       <c r="AL53" s="41"/>
-      <c r="AM53" s="40"/>
-      <c r="AN53" s="40"/>
-      <c r="AO53" s="40"/>
+      <c r="AM53" s="45"/>
+      <c r="AN53" s="45"/>
+      <c r="AO53" s="45"/>
       <c r="AP53" s="40"/>
       <c r="AQ53" s="40"/>
       <c r="AR53" s="40"/>
@@ -6284,22 +5966,14 @@
       <c r="BV53" s="40"/>
       <c r="BW53" s="40"/>
       <c r="BX53" s="40"/>
-      <c r="BY53" s="47"/>
-      <c r="BZ53" s="41"/>
-      <c r="CA53" s="40"/>
-      <c r="CB53" s="40"/>
-      <c r="CC53" s="40"/>
-      <c r="CD53" s="40"/>
-      <c r="CE53" s="40"/>
-      <c r="CF53" s="40"/>
-      <c r="CG53" s="40"/>
+      <c r="BY53" s="40"/>
     </row>
-    <row r="54" spans="1:85" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
-      <c r="B54" s="82" t="s">
+    <row r="54" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="60"/>
+      <c r="B54" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="66" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="49" t="s">
@@ -6379,20 +6053,12 @@
       <c r="BV54" s="40"/>
       <c r="BW54" s="40"/>
       <c r="BX54" s="40"/>
-      <c r="BY54" s="47"/>
-      <c r="BZ54" s="41"/>
-      <c r="CA54" s="40"/>
-      <c r="CB54" s="40"/>
-      <c r="CC54" s="40"/>
-      <c r="CD54" s="40"/>
-      <c r="CE54" s="40"/>
-      <c r="CF54" s="40"/>
-      <c r="CG54" s="40"/>
+      <c r="BY54" s="40"/>
     </row>
-    <row r="55" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="66"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="65"/>
+    <row r="55" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="60"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="51" t="s">
         <v>24</v>
       </c>
@@ -6470,22 +6136,14 @@
       <c r="BV55" s="40"/>
       <c r="BW55" s="40"/>
       <c r="BX55" s="40"/>
-      <c r="BY55" s="47"/>
-      <c r="BZ55" s="41"/>
-      <c r="CA55" s="40"/>
-      <c r="CB55" s="40"/>
-      <c r="CC55" s="40"/>
-      <c r="CD55" s="40"/>
-      <c r="CE55" s="40"/>
-      <c r="CF55" s="40"/>
-      <c r="CG55" s="40"/>
+      <c r="BY55" s="40"/>
     </row>
-    <row r="56" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="66"/>
-      <c r="B56" s="60">
+    <row r="56" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="60"/>
+      <c r="B56" s="66">
         <v>3.7</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="49" t="s">
@@ -6565,20 +6223,12 @@
       <c r="BV56" s="40"/>
       <c r="BW56" s="40"/>
       <c r="BX56" s="40"/>
-      <c r="BY56" s="47"/>
-      <c r="BZ56" s="41"/>
-      <c r="CA56" s="40"/>
-      <c r="CB56" s="40"/>
-      <c r="CC56" s="40"/>
-      <c r="CD56" s="40"/>
-      <c r="CE56" s="40"/>
-      <c r="CF56" s="40"/>
-      <c r="CG56" s="40"/>
+      <c r="BY56" s="40"/>
     </row>
-    <row r="57" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="66"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+    <row r="57" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="60"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="51" t="s">
         <v>24</v>
       </c>
@@ -6656,22 +6306,14 @@
       <c r="BV57" s="40"/>
       <c r="BW57" s="40"/>
       <c r="BX57" s="40"/>
-      <c r="BY57" s="47"/>
-      <c r="BZ57" s="41"/>
-      <c r="CA57" s="40"/>
-      <c r="CB57" s="40"/>
-      <c r="CC57" s="40"/>
-      <c r="CD57" s="40"/>
-      <c r="CE57" s="40"/>
-      <c r="CF57" s="40"/>
-      <c r="CG57" s="40"/>
+      <c r="BY57" s="40"/>
     </row>
-    <row r="58" spans="1:85" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="66"/>
-      <c r="B58" s="85" t="s">
+    <row r="58" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="60"/>
+      <c r="B58" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="87" t="s">
+      <c r="C58" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="49" t="s">
@@ -6751,20 +6393,12 @@
       <c r="BV58" s="40"/>
       <c r="BW58" s="40"/>
       <c r="BX58" s="40"/>
-      <c r="BY58" s="47"/>
-      <c r="BZ58" s="41"/>
-      <c r="CA58" s="40"/>
-      <c r="CB58" s="40"/>
-      <c r="CC58" s="40"/>
-      <c r="CD58" s="40"/>
-      <c r="CE58" s="40"/>
-      <c r="CF58" s="40"/>
-      <c r="CG58" s="40"/>
+      <c r="BY58" s="40"/>
     </row>
-    <row r="59" spans="1:85" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="66"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="61"/>
+    <row r="59" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="60"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="51" t="s">
         <v>24</v>
       </c>
@@ -6842,22 +6476,14 @@
       <c r="BV59" s="40"/>
       <c r="BW59" s="40"/>
       <c r="BX59" s="40"/>
-      <c r="BY59" s="47"/>
-      <c r="BZ59" s="41"/>
-      <c r="CA59" s="40"/>
-      <c r="CB59" s="40"/>
-      <c r="CC59" s="40"/>
-      <c r="CD59" s="40"/>
-      <c r="CE59" s="40"/>
-      <c r="CF59" s="40"/>
-      <c r="CG59" s="40"/>
+      <c r="BY59" s="40"/>
     </row>
-    <row r="60" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="66"/>
-      <c r="B60" s="82" t="s">
+    <row r="60" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="60"/>
+      <c r="B60" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="66" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="49" t="s">
@@ -6937,20 +6563,12 @@
       <c r="BV60" s="40"/>
       <c r="BW60" s="40"/>
       <c r="BX60" s="40"/>
-      <c r="BY60" s="47"/>
-      <c r="BZ60" s="41"/>
-      <c r="CA60" s="40"/>
-      <c r="CB60" s="40"/>
-      <c r="CC60" s="40"/>
-      <c r="CD60" s="40"/>
-      <c r="CE60" s="40"/>
-      <c r="CF60" s="40"/>
-      <c r="CG60" s="40"/>
+      <c r="BY60" s="40"/>
     </row>
-    <row r="61" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="67"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="65"/>
+    <row r="61" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="61"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="51" t="s">
         <v>24</v>
       </c>
@@ -7028,31 +6646,23 @@
       <c r="BV61" s="26"/>
       <c r="BW61" s="26"/>
       <c r="BX61" s="26"/>
-      <c r="BY61" s="27"/>
-      <c r="BZ61" s="25"/>
-      <c r="CA61" s="26"/>
-      <c r="CB61" s="26"/>
-      <c r="CC61" s="26"/>
-      <c r="CD61" s="26"/>
-      <c r="CE61" s="26"/>
-      <c r="CF61" s="26"/>
-      <c r="CG61" s="26"/>
+      <c r="BY61" s="26"/>
     </row>
-    <row r="62" spans="1:85" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="77" t="s">
+    <row r="62" spans="1:77" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="62" t="s">
         <v>85</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -7078,7 +6688,7 @@
       <c r="AA62" s="31"/>
       <c r="AB62" s="31"/>
       <c r="AC62" s="44"/>
-      <c r="AD62" s="33"/>
+      <c r="AD62" s="41"/>
       <c r="AE62" s="31"/>
       <c r="AF62" s="31"/>
       <c r="AG62" s="31"/>
@@ -7124,26 +6734,18 @@
       <c r="BU62" s="31"/>
       <c r="BV62" s="31"/>
       <c r="BW62" s="31"/>
-      <c r="BX62" s="31"/>
-      <c r="BY62" s="44"/>
-      <c r="BZ62" s="33"/>
-      <c r="CA62" s="31"/>
-      <c r="CB62" s="31"/>
-      <c r="CC62" s="31"/>
-      <c r="CD62" s="31"/>
-      <c r="CE62" s="31"/>
-      <c r="CF62" s="44"/>
-      <c r="CG62" s="31"/>
+      <c r="BX62" s="44"/>
+      <c r="BY62" s="31"/>
     </row>
-    <row r="63" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="78"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="84"/>
+    <row r="63" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="93"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="38"/>
@@ -7215,23 +6817,15 @@
       <c r="BU63" s="40"/>
       <c r="BV63" s="40"/>
       <c r="BW63" s="40"/>
-      <c r="BX63" s="40"/>
-      <c r="BY63" s="45"/>
-      <c r="BZ63" s="41"/>
-      <c r="CA63" s="40"/>
-      <c r="CB63" s="40"/>
-      <c r="CC63" s="40"/>
-      <c r="CD63" s="40"/>
-      <c r="CE63" s="40"/>
-      <c r="CF63" s="45"/>
-      <c r="CG63" s="40"/>
+      <c r="BX63" s="45"/>
+      <c r="BY63" s="40"/>
     </row>
-    <row r="64" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="78"/>
-      <c r="B64" s="82" t="s">
+    <row r="64" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="93"/>
+      <c r="B64" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="66" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="49" t="s">
@@ -7264,7 +6858,7 @@
       <c r="AA64" s="40"/>
       <c r="AB64" s="40"/>
       <c r="AC64" s="47"/>
-      <c r="AD64" s="44"/>
+      <c r="AD64" s="41"/>
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
       <c r="AG64" s="40"/>
@@ -7272,7 +6866,7 @@
       <c r="AI64" s="40"/>
       <c r="AJ64" s="40"/>
       <c r="AK64" s="47"/>
-      <c r="AL64" s="41"/>
+      <c r="AL64" s="44"/>
       <c r="AM64" s="40"/>
       <c r="AN64" s="40"/>
       <c r="AO64" s="40"/>
@@ -7311,20 +6905,12 @@
       <c r="BV64" s="40"/>
       <c r="BW64" s="40"/>
       <c r="BX64" s="40"/>
-      <c r="BY64" s="47"/>
-      <c r="BZ64" s="41"/>
-      <c r="CA64" s="40"/>
-      <c r="CB64" s="40"/>
-      <c r="CC64" s="40"/>
-      <c r="CD64" s="40"/>
-      <c r="CE64" s="40"/>
-      <c r="CF64" s="40"/>
-      <c r="CG64" s="40"/>
+      <c r="BY64" s="40"/>
     </row>
-    <row r="65" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="78"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="61"/>
+    <row r="65" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="93"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="50" t="s">
         <v>24</v>
       </c>
@@ -7355,7 +6941,7 @@
       <c r="AA65" s="40"/>
       <c r="AB65" s="40"/>
       <c r="AC65" s="47"/>
-      <c r="AD65" s="45"/>
+      <c r="AD65" s="41"/>
       <c r="AE65" s="40"/>
       <c r="AF65" s="40"/>
       <c r="AG65" s="40"/>
@@ -7363,7 +6949,7 @@
       <c r="AI65" s="40"/>
       <c r="AJ65" s="40"/>
       <c r="AK65" s="47"/>
-      <c r="AL65" s="41"/>
+      <c r="AL65" s="45"/>
       <c r="AM65" s="40"/>
       <c r="AN65" s="40"/>
       <c r="AO65" s="40"/>
@@ -7402,29 +6988,21 @@
       <c r="BV65" s="40"/>
       <c r="BW65" s="40"/>
       <c r="BX65" s="40"/>
-      <c r="BY65" s="47"/>
-      <c r="BZ65" s="41"/>
-      <c r="CA65" s="40"/>
-      <c r="CB65" s="40"/>
-      <c r="CC65" s="40"/>
-      <c r="CD65" s="40"/>
-      <c r="CE65" s="40"/>
-      <c r="CF65" s="40"/>
-      <c r="CG65" s="40"/>
+      <c r="BY65" s="40"/>
     </row>
-    <row r="66" spans="1:85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="78"/>
-      <c r="B66" s="80" t="s">
+    <row r="66" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="93"/>
+      <c r="B66" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="66" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="38"/>
@@ -7496,26 +7074,18 @@
       <c r="BU66" s="40"/>
       <c r="BV66" s="40"/>
       <c r="BW66" s="40"/>
-      <c r="BX66" s="40"/>
-      <c r="BY66" s="44"/>
-      <c r="BZ66" s="41"/>
-      <c r="CA66" s="40"/>
-      <c r="CB66" s="40"/>
-      <c r="CC66" s="40"/>
-      <c r="CD66" s="40"/>
-      <c r="CE66" s="40"/>
-      <c r="CF66" s="44"/>
-      <c r="CG66" s="40"/>
+      <c r="BX66" s="44"/>
+      <c r="BY66" s="40"/>
     </row>
-    <row r="67" spans="1:85" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="79"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="65"/>
+    <row r="67" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="94"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="38"/>
@@ -7587,20 +7157,82 @@
       <c r="BU67" s="40"/>
       <c r="BV67" s="40"/>
       <c r="BW67" s="40"/>
-      <c r="BX67" s="40"/>
-      <c r="BY67" s="45"/>
-      <c r="BZ67" s="41"/>
-      <c r="CA67" s="40"/>
-      <c r="CB67" s="40"/>
-      <c r="CC67" s="40"/>
-      <c r="CD67" s="40"/>
-      <c r="CE67" s="40"/>
-      <c r="CF67" s="45"/>
-      <c r="CG67" s="40"/>
+      <c r="BX67" s="45"/>
+      <c r="BY67" s="40"/>
     </row>
-    <row r="68" spans="1:85" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:77" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="86">
+    <mergeCell ref="BB11:BI11"/>
+    <mergeCell ref="BJ11:BQ11"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="BR11:BY11"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="AT11:BA11"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F10:BY10"/>
+    <mergeCell ref="AL11:AS11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="V11:AC11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A44:A61"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B18:B19"/>
@@ -7617,77 +7249,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="V11:AC11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="BZ11:CG11"/>
-    <mergeCell ref="A12:A29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AT11:BA11"/>
-    <mergeCell ref="BB11:BI11"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F10:CG10"/>
-    <mergeCell ref="AL11:AS11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="BJ11:BQ11"/>
-    <mergeCell ref="BR11:BY11"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7700,12 +7261,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7908,19 +7470,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7945,17 +7514,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12107B53-C077-4AF6-975E-FE3D102DA505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179FC92-C50A-4839-BA25-9AB929C9A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Änderungen an der Dokumentation</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>3.9</t>
   </si>
   <si>
@@ -316,10 +313,10 @@
     <t>Projekt erstellen und konfigurieren</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>2.7</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,144 +1257,141 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,10 +1962,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY68"/>
+  <dimension ref="A1:BQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11:AS11"/>
+    <sheetView tabSelected="1" topLeftCell="AP34" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN52" sqref="BN52:BN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1986,26 +1980,26 @@
     <col min="46" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="H2" s="83" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="H2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="K2" s="72" t="s">
+      <c r="I2" s="91"/>
+      <c r="K2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -2023,7 +2017,7 @@
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
     </row>
-    <row r="3" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2033,15 +2027,15 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="K3" s="73" t="s">
+      <c r="I3" s="92"/>
+      <c r="K3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -2058,7 +2052,7 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
     </row>
-    <row r="4" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2068,16 +2062,16 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="85"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
       <c r="T4" s="13"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -2095,7 +2089,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
@@ -2105,16 +2099,16 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2132,23 +2126,23 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2174,7 +2168,7 @@
       <c r="AP6" s="19"/>
       <c r="AQ6" s="19"/>
     </row>
-    <row r="7" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="20"/>
@@ -2200,108 +2194,100 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
     </row>
-    <row r="8" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:77" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+    <row r="9" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:69" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="101" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
-      <c r="BJ10" s="102"/>
-      <c r="BK10" s="102"/>
-      <c r="BL10" s="102"/>
-      <c r="BM10" s="102"/>
-      <c r="BN10" s="102"/>
-      <c r="BO10" s="102"/>
-      <c r="BP10" s="102"/>
-      <c r="BQ10" s="102"/>
-      <c r="BR10" s="102"/>
-      <c r="BS10" s="102"/>
-      <c r="BT10" s="102"/>
-      <c r="BU10" s="102"/>
-      <c r="BV10" s="102"/>
-      <c r="BW10" s="102"/>
-      <c r="BX10" s="102"/>
-      <c r="BY10" s="103"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="78"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="78"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="78"/>
     </row>
-    <row r="11" spans="1:77" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100" t="s">
+    <row r="11" spans="1:69" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="88">
         <v>45068</v>
       </c>
@@ -2312,26 +2298,26 @@
       <c r="K11" s="88"/>
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
-      <c r="N11" s="89">
+      <c r="N11" s="63">
         <v>45069</v>
       </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="89">
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="63">
         <v>45071</v>
       </c>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="91"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="65"/>
       <c r="AD11" s="88">
         <v>45072</v>
       </c>
@@ -2342,62 +2328,52 @@
       <c r="AI11" s="88"/>
       <c r="AJ11" s="88"/>
       <c r="AK11" s="88"/>
-      <c r="AL11" s="89">
+      <c r="AL11" s="63">
         <v>45076</v>
       </c>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="89">
-        <v>45076</v>
-      </c>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="89">
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="63">
         <v>45077</v>
       </c>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="89">
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="63">
         <v>45078</v>
       </c>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="90"/>
-      <c r="BO11" s="90"/>
-      <c r="BP11" s="90"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="89">
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="63">
         <v>45079</v>
       </c>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="90"/>
-      <c r="BU11" s="90"/>
-      <c r="BV11" s="90"/>
-      <c r="BW11" s="90"/>
-      <c r="BX11" s="90"/>
-      <c r="BY11" s="91"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
+      <c r="BP11" s="64"/>
+      <c r="BQ11" s="65"/>
     </row>
-    <row r="12" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="70" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="66" t="s">
@@ -2473,19 +2449,11 @@
       <c r="BO12" s="40"/>
       <c r="BP12" s="40"/>
       <c r="BQ12" s="47"/>
-      <c r="BR12" s="41"/>
-      <c r="BS12" s="40"/>
-      <c r="BT12" s="40"/>
-      <c r="BU12" s="40"/>
-      <c r="BV12" s="40"/>
-      <c r="BW12" s="40"/>
-      <c r="BX12" s="40"/>
-      <c r="BY12" s="40"/>
     </row>
-    <row r="13" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="60"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
+    <row r="13" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
@@ -2556,18 +2524,10 @@
       <c r="BO13" s="40"/>
       <c r="BP13" s="40"/>
       <c r="BQ13" s="47"/>
-      <c r="BR13" s="41"/>
-      <c r="BS13" s="40"/>
-      <c r="BT13" s="40"/>
-      <c r="BU13" s="40"/>
-      <c r="BV13" s="40"/>
-      <c r="BW13" s="40"/>
-      <c r="BX13" s="40"/>
-      <c r="BY13" s="40"/>
     </row>
-    <row r="14" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="60"/>
-      <c r="B14" s="64" t="s">
+    <row r="14" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2643,19 +2603,11 @@
       <c r="BO14" s="40"/>
       <c r="BP14" s="40"/>
       <c r="BQ14" s="47"/>
-      <c r="BR14" s="41"/>
-      <c r="BS14" s="40"/>
-      <c r="BT14" s="40"/>
-      <c r="BU14" s="40"/>
-      <c r="BV14" s="40"/>
-      <c r="BW14" s="40"/>
-      <c r="BX14" s="40"/>
-      <c r="BY14" s="40"/>
     </row>
-    <row r="15" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="60"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="63"/>
+    <row r="15" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="68"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
@@ -2726,18 +2678,10 @@
       <c r="BO15" s="40"/>
       <c r="BP15" s="40"/>
       <c r="BQ15" s="47"/>
-      <c r="BR15" s="41"/>
-      <c r="BS15" s="40"/>
-      <c r="BT15" s="40"/>
-      <c r="BU15" s="40"/>
-      <c r="BV15" s="40"/>
-      <c r="BW15" s="40"/>
-      <c r="BX15" s="40"/>
-      <c r="BY15" s="40"/>
     </row>
-    <row r="16" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
-      <c r="B16" s="64" t="s">
+    <row r="16" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="68"/>
+      <c r="B16" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="66" t="s">
@@ -2813,19 +2757,11 @@
       <c r="BO16" s="40"/>
       <c r="BP16" s="40"/>
       <c r="BQ16" s="47"/>
-      <c r="BR16" s="41"/>
-      <c r="BS16" s="40"/>
-      <c r="BT16" s="40"/>
-      <c r="BU16" s="40"/>
-      <c r="BV16" s="40"/>
-      <c r="BW16" s="40"/>
-      <c r="BX16" s="40"/>
-      <c r="BY16" s="40"/>
     </row>
-    <row r="17" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="63"/>
+    <row r="17" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="50" t="s">
         <v>24</v>
       </c>
@@ -2896,18 +2832,10 @@
       <c r="BO17" s="40"/>
       <c r="BP17" s="40"/>
       <c r="BQ17" s="47"/>
-      <c r="BR17" s="41"/>
-      <c r="BS17" s="40"/>
-      <c r="BT17" s="40"/>
-      <c r="BU17" s="40"/>
-      <c r="BV17" s="40"/>
-      <c r="BW17" s="40"/>
-      <c r="BX17" s="40"/>
-      <c r="BY17" s="40"/>
     </row>
-    <row r="18" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="60"/>
-      <c r="B18" s="64" t="s">
+    <row r="18" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="68"/>
+      <c r="B18" s="84" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="66" t="s">
@@ -2983,19 +2911,11 @@
       <c r="BO18" s="40"/>
       <c r="BP18" s="40"/>
       <c r="BQ18" s="47"/>
-      <c r="BR18" s="41"/>
-      <c r="BS18" s="40"/>
-      <c r="BT18" s="40"/>
-      <c r="BU18" s="40"/>
-      <c r="BV18" s="40"/>
-      <c r="BW18" s="40"/>
-      <c r="BX18" s="40"/>
-      <c r="BY18" s="40"/>
     </row>
-    <row r="19" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="60"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="63"/>
+    <row r="19" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="68"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="50" t="s">
         <v>24</v>
       </c>
@@ -3066,18 +2986,10 @@
       <c r="BO19" s="40"/>
       <c r="BP19" s="40"/>
       <c r="BQ19" s="47"/>
-      <c r="BR19" s="41"/>
-      <c r="BS19" s="40"/>
-      <c r="BT19" s="40"/>
-      <c r="BU19" s="40"/>
-      <c r="BV19" s="40"/>
-      <c r="BW19" s="40"/>
-      <c r="BX19" s="40"/>
-      <c r="BY19" s="40"/>
     </row>
-    <row r="20" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="60"/>
-      <c r="B20" s="64" t="s">
+    <row r="20" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="68"/>
+      <c r="B20" s="84" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="66" t="s">
@@ -3153,19 +3065,11 @@
       <c r="BO20" s="40"/>
       <c r="BP20" s="40"/>
       <c r="BQ20" s="47"/>
-      <c r="BR20" s="41"/>
-      <c r="BS20" s="40"/>
-      <c r="BT20" s="40"/>
-      <c r="BU20" s="40"/>
-      <c r="BV20" s="40"/>
-      <c r="BW20" s="40"/>
-      <c r="BX20" s="40"/>
-      <c r="BY20" s="40"/>
     </row>
-    <row r="21" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="63"/>
+    <row r="21" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="50" t="s">
         <v>24</v>
       </c>
@@ -3236,18 +3140,10 @@
       <c r="BO21" s="40"/>
       <c r="BP21" s="40"/>
       <c r="BQ21" s="47"/>
-      <c r="BR21" s="41"/>
-      <c r="BS21" s="40"/>
-      <c r="BT21" s="40"/>
-      <c r="BU21" s="40"/>
-      <c r="BV21" s="40"/>
-      <c r="BW21" s="40"/>
-      <c r="BX21" s="40"/>
-      <c r="BY21" s="40"/>
     </row>
-    <row r="22" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
-      <c r="B22" s="64" t="s">
+    <row r="22" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="68"/>
+      <c r="B22" s="84" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="66" t="s">
@@ -3323,19 +3219,11 @@
       <c r="BO22" s="40"/>
       <c r="BP22" s="40"/>
       <c r="BQ22" s="47"/>
-      <c r="BR22" s="41"/>
-      <c r="BS22" s="40"/>
-      <c r="BT22" s="40"/>
-      <c r="BU22" s="40"/>
-      <c r="BV22" s="40"/>
-      <c r="BW22" s="40"/>
-      <c r="BX22" s="40"/>
-      <c r="BY22" s="40"/>
     </row>
-    <row r="23" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="60"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="63"/>
+    <row r="23" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="50" t="s">
         <v>24</v>
       </c>
@@ -3406,18 +3294,10 @@
       <c r="BO23" s="40"/>
       <c r="BP23" s="40"/>
       <c r="BQ23" s="47"/>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="40"/>
-      <c r="BT23" s="40"/>
-      <c r="BU23" s="40"/>
-      <c r="BV23" s="40"/>
-      <c r="BW23" s="40"/>
-      <c r="BX23" s="40"/>
-      <c r="BY23" s="40"/>
     </row>
-    <row r="24" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="68"/>
+      <c r="B24" s="84" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="66" t="s">
@@ -3493,19 +3373,11 @@
       <c r="BO24" s="40"/>
       <c r="BP24" s="40"/>
       <c r="BQ24" s="47"/>
-      <c r="BR24" s="41"/>
-      <c r="BS24" s="40"/>
-      <c r="BT24" s="40"/>
-      <c r="BU24" s="40"/>
-      <c r="BV24" s="40"/>
-      <c r="BW24" s="40"/>
-      <c r="BX24" s="40"/>
-      <c r="BY24" s="40"/>
     </row>
-    <row r="25" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="60"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63"/>
+    <row r="25" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="68"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="50" t="s">
         <v>24</v>
       </c>
@@ -3576,18 +3448,10 @@
       <c r="BO25" s="40"/>
       <c r="BP25" s="40"/>
       <c r="BQ25" s="47"/>
-      <c r="BR25" s="41"/>
-      <c r="BS25" s="40"/>
-      <c r="BT25" s="40"/>
-      <c r="BU25" s="40"/>
-      <c r="BV25" s="40"/>
-      <c r="BW25" s="40"/>
-      <c r="BX25" s="40"/>
-      <c r="BY25" s="40"/>
     </row>
-    <row r="26" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="60"/>
-      <c r="B26" s="64" t="s">
+    <row r="26" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="68"/>
+      <c r="B26" s="84" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="66" t="s">
@@ -3663,19 +3527,11 @@
       <c r="BO26" s="40"/>
       <c r="BP26" s="40"/>
       <c r="BQ26" s="47"/>
-      <c r="BR26" s="41"/>
-      <c r="BS26" s="40"/>
-      <c r="BT26" s="40"/>
-      <c r="BU26" s="40"/>
-      <c r="BV26" s="40"/>
-      <c r="BW26" s="40"/>
-      <c r="BX26" s="40"/>
-      <c r="BY26" s="40"/>
     </row>
-    <row r="27" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="60"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="63"/>
+    <row r="27" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="68"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="50" t="s">
         <v>24</v>
       </c>
@@ -3746,18 +3602,10 @@
       <c r="BO27" s="40"/>
       <c r="BP27" s="40"/>
       <c r="BQ27" s="47"/>
-      <c r="BR27" s="41"/>
-      <c r="BS27" s="40"/>
-      <c r="BT27" s="40"/>
-      <c r="BU27" s="40"/>
-      <c r="BV27" s="40"/>
-      <c r="BW27" s="40"/>
-      <c r="BX27" s="40"/>
-      <c r="BY27" s="40"/>
     </row>
-    <row r="28" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
-      <c r="B28" s="64" t="s">
+    <row r="28" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="68"/>
+      <c r="B28" s="84" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="66" t="s">
@@ -3833,19 +3681,11 @@
       <c r="BO28" s="40"/>
       <c r="BP28" s="40"/>
       <c r="BQ28" s="47"/>
-      <c r="BR28" s="41"/>
-      <c r="BS28" s="40"/>
-      <c r="BT28" s="40"/>
-      <c r="BU28" s="40"/>
-      <c r="BV28" s="40"/>
-      <c r="BW28" s="40"/>
-      <c r="BX28" s="40"/>
-      <c r="BY28" s="40"/>
     </row>
-    <row r="29" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="61"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="68"/>
+    <row r="29" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="51" t="s">
         <v>24</v>
       </c>
@@ -3916,23 +3756,15 @@
       <c r="BO29" s="26"/>
       <c r="BP29" s="26"/>
       <c r="BQ29" s="27"/>
-      <c r="BR29" s="25"/>
-      <c r="BS29" s="26"/>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="26"/>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="BX29" s="26"/>
-      <c r="BY29" s="26"/>
     </row>
-    <row r="30" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
+    <row r="30" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="52" t="s">
@@ -4005,19 +3837,11 @@
       <c r="BO30" s="31"/>
       <c r="BP30" s="31"/>
       <c r="BQ30" s="32"/>
-      <c r="BR30" s="33"/>
-      <c r="BS30" s="31"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="31"/>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
     </row>
-    <row r="31" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="60"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="63"/>
+    <row r="31" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="68"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="50" t="s">
         <v>24</v>
       </c>
@@ -4087,18 +3911,10 @@
       <c r="BO31" s="40"/>
       <c r="BP31" s="40"/>
       <c r="BQ31" s="47"/>
-      <c r="BR31" s="41"/>
-      <c r="BS31" s="40"/>
-      <c r="BT31" s="40"/>
-      <c r="BU31" s="40"/>
-      <c r="BV31" s="40"/>
-      <c r="BW31" s="40"/>
-      <c r="BX31" s="40"/>
-      <c r="BY31" s="40"/>
     </row>
-    <row r="32" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="60"/>
-      <c r="B32" s="87" t="s">
+    <row r="32" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="68"/>
+      <c r="B32" s="82" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="66" t="s">
@@ -4174,19 +3990,11 @@
       <c r="BO32" s="40"/>
       <c r="BP32" s="40"/>
       <c r="BQ32" s="47"/>
-      <c r="BR32" s="41"/>
-      <c r="BS32" s="40"/>
-      <c r="BT32" s="40"/>
-      <c r="BU32" s="40"/>
-      <c r="BV32" s="40"/>
-      <c r="BW32" s="40"/>
-      <c r="BX32" s="40"/>
-      <c r="BY32" s="40"/>
     </row>
-    <row r="33" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="60"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="63"/>
+    <row r="33" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="68"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="50" t="s">
         <v>24</v>
       </c>
@@ -4257,22 +4065,14 @@
       <c r="BO33" s="40"/>
       <c r="BP33" s="40"/>
       <c r="BQ33" s="47"/>
-      <c r="BR33" s="41"/>
-      <c r="BS33" s="40"/>
-      <c r="BT33" s="40"/>
-      <c r="BU33" s="40"/>
-      <c r="BV33" s="40"/>
-      <c r="BW33" s="40"/>
-      <c r="BX33" s="40"/>
-      <c r="BY33" s="40"/>
     </row>
-    <row r="34" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="60"/>
-      <c r="B34" s="87" t="s">
+    <row r="34" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="68"/>
+      <c r="B34" s="82" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>23</v>
@@ -4344,19 +4144,11 @@
       <c r="BO34" s="40"/>
       <c r="BP34" s="40"/>
       <c r="BQ34" s="47"/>
-      <c r="BR34" s="41"/>
-      <c r="BS34" s="40"/>
-      <c r="BT34" s="40"/>
-      <c r="BU34" s="40"/>
-      <c r="BV34" s="40"/>
-      <c r="BW34" s="40"/>
-      <c r="BX34" s="40"/>
-      <c r="BY34" s="40"/>
     </row>
-    <row r="35" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="60"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="63"/>
+    <row r="35" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="68"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="50" t="s">
         <v>24</v>
       </c>
@@ -4427,18 +4219,10 @@
       <c r="BO35" s="40"/>
       <c r="BP35" s="40"/>
       <c r="BQ35" s="47"/>
-      <c r="BR35" s="41"/>
-      <c r="BS35" s="40"/>
-      <c r="BT35" s="40"/>
-      <c r="BU35" s="40"/>
-      <c r="BV35" s="40"/>
-      <c r="BW35" s="40"/>
-      <c r="BX35" s="40"/>
-      <c r="BY35" s="40"/>
     </row>
-    <row r="36" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="60"/>
-      <c r="B36" s="87" t="s">
+    <row r="36" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="68"/>
+      <c r="B36" s="82" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="66" t="s">
@@ -4514,19 +4298,11 @@
       <c r="BO36" s="40"/>
       <c r="BP36" s="40"/>
       <c r="BQ36" s="39"/>
-      <c r="BR36" s="41"/>
-      <c r="BS36" s="40"/>
-      <c r="BT36" s="40"/>
-      <c r="BU36" s="40"/>
-      <c r="BV36" s="40"/>
-      <c r="BW36" s="40"/>
-      <c r="BX36" s="40"/>
-      <c r="BY36" s="40"/>
     </row>
-    <row r="37" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="60"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="63"/>
+    <row r="37" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="50" t="s">
         <v>24</v>
       </c>
@@ -4597,18 +4373,10 @@
       <c r="BO37" s="40"/>
       <c r="BP37" s="42"/>
       <c r="BQ37" s="48"/>
-      <c r="BR37" s="41"/>
-      <c r="BS37" s="40"/>
-      <c r="BT37" s="40"/>
-      <c r="BU37" s="40"/>
-      <c r="BV37" s="40"/>
-      <c r="BW37" s="40"/>
-      <c r="BX37" s="40"/>
-      <c r="BY37" s="40"/>
     </row>
-    <row r="38" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="60"/>
-      <c r="B38" s="87" t="s">
+    <row r="38" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="68"/>
+      <c r="B38" s="82" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="66" t="s">
@@ -4684,19 +4452,11 @@
       <c r="BO38" s="40"/>
       <c r="BP38" s="40"/>
       <c r="BQ38" s="47"/>
-      <c r="BR38" s="41"/>
-      <c r="BS38" s="40"/>
-      <c r="BT38" s="40"/>
-      <c r="BU38" s="40"/>
-      <c r="BV38" s="40"/>
-      <c r="BW38" s="40"/>
-      <c r="BX38" s="40"/>
-      <c r="BY38" s="40"/>
     </row>
-    <row r="39" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="60"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="63"/>
+    <row r="39" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="68"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="50" t="s">
         <v>24</v>
       </c>
@@ -4767,17 +4527,9 @@
       <c r="BO39" s="40"/>
       <c r="BP39" s="40"/>
       <c r="BQ39" s="47"/>
-      <c r="BR39" s="41"/>
-      <c r="BS39" s="40"/>
-      <c r="BT39" s="40"/>
-      <c r="BU39" s="40"/>
-      <c r="BV39" s="40"/>
-      <c r="BW39" s="40"/>
-      <c r="BX39" s="40"/>
-      <c r="BY39" s="40"/>
     </row>
-    <row r="40" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="68"/>
       <c r="B40" s="66" t="s">
         <v>64</v>
       </c>
@@ -4854,19 +4606,11 @@
       <c r="BO40" s="40"/>
       <c r="BP40" s="40"/>
       <c r="BQ40" s="47"/>
-      <c r="BR40" s="41"/>
-      <c r="BS40" s="40"/>
-      <c r="BT40" s="40"/>
-      <c r="BU40" s="40"/>
-      <c r="BV40" s="40"/>
-      <c r="BW40" s="40"/>
-      <c r="BX40" s="40"/>
-      <c r="BY40" s="40"/>
     </row>
-    <row r="41" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="60"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+    <row r="41" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="68"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="50" t="s">
         <v>24</v>
       </c>
@@ -4937,17 +4681,9 @@
       <c r="BO41" s="40"/>
       <c r="BP41" s="40"/>
       <c r="BQ41" s="47"/>
-      <c r="BR41" s="41"/>
-      <c r="BS41" s="40"/>
-      <c r="BT41" s="40"/>
-      <c r="BU41" s="40"/>
-      <c r="BV41" s="40"/>
-      <c r="BW41" s="40"/>
-      <c r="BX41" s="40"/>
-      <c r="BY41" s="40"/>
     </row>
-    <row r="42" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="68"/>
       <c r="B42" s="66">
         <v>2.7</v>
       </c>
@@ -5024,19 +4760,11 @@
       <c r="BO42" s="40"/>
       <c r="BP42" s="40"/>
       <c r="BQ42" s="47"/>
-      <c r="BR42" s="41"/>
-      <c r="BS42" s="40"/>
-      <c r="BT42" s="40"/>
-      <c r="BU42" s="40"/>
-      <c r="BV42" s="40"/>
-      <c r="BW42" s="40"/>
-      <c r="BX42" s="40"/>
-      <c r="BY42" s="40"/>
     </row>
-    <row r="43" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
+    <row r="43" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="69"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="51" t="s">
         <v>24</v>
       </c>
@@ -5107,23 +4835,15 @@
       <c r="BO43" s="26"/>
       <c r="BP43" s="26"/>
       <c r="BQ43" s="27"/>
-      <c r="BR43" s="25"/>
-      <c r="BS43" s="26"/>
-      <c r="BT43" s="26"/>
-      <c r="BU43" s="26"/>
-      <c r="BV43" s="26"/>
-      <c r="BW43" s="26"/>
-      <c r="BX43" s="26"/>
-      <c r="BY43" s="26"/>
     </row>
-    <row r="44" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="52" t="s">
@@ -5196,19 +4916,11 @@
       <c r="BO44" s="31"/>
       <c r="BP44" s="31"/>
       <c r="BQ44" s="32"/>
-      <c r="BR44" s="33"/>
-      <c r="BS44" s="31"/>
-      <c r="BT44" s="31"/>
-      <c r="BU44" s="31"/>
-      <c r="BV44" s="31"/>
-      <c r="BW44" s="31"/>
-      <c r="BX44" s="31"/>
-      <c r="BY44" s="31"/>
     </row>
-    <row r="45" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="60"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
+    <row r="45" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="68"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="50" t="s">
         <v>24</v>
       </c>
@@ -5279,18 +4991,10 @@
       <c r="BO45" s="40"/>
       <c r="BP45" s="40"/>
       <c r="BQ45" s="47"/>
-      <c r="BR45" s="41"/>
-      <c r="BS45" s="40"/>
-      <c r="BT45" s="40"/>
-      <c r="BU45" s="40"/>
-      <c r="BV45" s="40"/>
-      <c r="BW45" s="40"/>
-      <c r="BX45" s="40"/>
-      <c r="BY45" s="40"/>
     </row>
-    <row r="46" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="60"/>
-      <c r="B46" s="64" t="s">
+    <row r="46" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="68"/>
+      <c r="B46" s="84" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="66" t="s">
@@ -5366,19 +5070,11 @@
       <c r="BO46" s="40"/>
       <c r="BP46" s="40"/>
       <c r="BQ46" s="47"/>
-      <c r="BR46" s="41"/>
-      <c r="BS46" s="40"/>
-      <c r="BT46" s="40"/>
-      <c r="BU46" s="40"/>
-      <c r="BV46" s="40"/>
-      <c r="BW46" s="40"/>
-      <c r="BX46" s="40"/>
-      <c r="BY46" s="40"/>
     </row>
-    <row r="47" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="60"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="63"/>
+    <row r="47" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="68"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="50" t="s">
         <v>24</v>
       </c>
@@ -5449,22 +5145,14 @@
       <c r="BO47" s="40"/>
       <c r="BP47" s="40"/>
       <c r="BQ47" s="47"/>
-      <c r="BR47" s="41"/>
-      <c r="BS47" s="40"/>
-      <c r="BT47" s="40"/>
-      <c r="BU47" s="40"/>
-      <c r="BV47" s="40"/>
-      <c r="BW47" s="40"/>
-      <c r="BX47" s="40"/>
-      <c r="BY47" s="40"/>
     </row>
-    <row r="48" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="60"/>
-      <c r="B48" s="64" t="s">
+    <row r="48" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="68"/>
+      <c r="B48" s="84" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>23</v>
@@ -5536,19 +5224,11 @@
       <c r="BO48" s="40"/>
       <c r="BP48" s="40"/>
       <c r="BQ48" s="47"/>
-      <c r="BR48" s="41"/>
-      <c r="BS48" s="40"/>
-      <c r="BT48" s="40"/>
-      <c r="BU48" s="40"/>
-      <c r="BV48" s="40"/>
-      <c r="BW48" s="40"/>
-      <c r="BX48" s="40"/>
-      <c r="BY48" s="40"/>
     </row>
-    <row r="49" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="60"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="63"/>
+    <row r="49" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="68"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="50" t="s">
         <v>24</v>
       </c>
@@ -5619,18 +5299,10 @@
       <c r="BO49" s="40"/>
       <c r="BP49" s="40"/>
       <c r="BQ49" s="47"/>
-      <c r="BR49" s="41"/>
-      <c r="BS49" s="40"/>
-      <c r="BT49" s="40"/>
-      <c r="BU49" s="40"/>
-      <c r="BV49" s="40"/>
-      <c r="BW49" s="40"/>
-      <c r="BX49" s="40"/>
-      <c r="BY49" s="40"/>
     </row>
-    <row r="50" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="60"/>
-      <c r="B50" s="64" t="s">
+    <row r="50" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="68"/>
+      <c r="B50" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="66" t="s">
@@ -5665,8 +5337,8 @@
       <c r="Z50" s="40"/>
       <c r="AA50" s="40"/>
       <c r="AB50" s="40"/>
-      <c r="AC50" s="104"/>
-      <c r="AD50" s="105"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="61"/>
       <c r="AE50" s="40"/>
       <c r="AF50" s="40"/>
       <c r="AG50" s="40"/>
@@ -5706,19 +5378,11 @@
       <c r="BO50" s="40"/>
       <c r="BP50" s="40"/>
       <c r="BQ50" s="47"/>
-      <c r="BR50" s="41"/>
-      <c r="BS50" s="40"/>
-      <c r="BT50" s="40"/>
-      <c r="BU50" s="40"/>
-      <c r="BV50" s="40"/>
-      <c r="BW50" s="40"/>
-      <c r="BX50" s="40"/>
-      <c r="BY50" s="40"/>
     </row>
-    <row r="51" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="60"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="63"/>
+    <row r="51" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="68"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="50" t="s">
         <v>24</v>
       </c>
@@ -5748,8 +5412,8 @@
       <c r="Z51" s="40"/>
       <c r="AA51" s="40"/>
       <c r="AB51" s="43"/>
-      <c r="AC51" s="106"/>
-      <c r="AD51" s="105"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="61"/>
       <c r="AE51" s="40"/>
       <c r="AF51" s="40"/>
       <c r="AG51" s="40"/>
@@ -5789,18 +5453,10 @@
       <c r="BO51" s="40"/>
       <c r="BP51" s="40"/>
       <c r="BQ51" s="47"/>
-      <c r="BR51" s="41"/>
-      <c r="BS51" s="40"/>
-      <c r="BT51" s="40"/>
-      <c r="BU51" s="40"/>
-      <c r="BV51" s="40"/>
-      <c r="BW51" s="40"/>
-      <c r="BX51" s="40"/>
-      <c r="BY51" s="40"/>
     </row>
-    <row r="52" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="60"/>
-      <c r="B52" s="64" t="s">
+    <row r="52" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="68"/>
+      <c r="B52" s="84" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="66" t="s">
@@ -5852,43 +5508,35 @@
       <c r="AQ52" s="40"/>
       <c r="AR52" s="40"/>
       <c r="AS52" s="47"/>
-      <c r="AT52" s="41"/>
-      <c r="AU52" s="40"/>
-      <c r="AV52" s="40"/>
-      <c r="AW52" s="40"/>
+      <c r="AT52" s="44"/>
+      <c r="AU52" s="44"/>
+      <c r="AV52" s="44"/>
+      <c r="AW52" s="44"/>
       <c r="AX52" s="40"/>
       <c r="AY52" s="40"/>
       <c r="AZ52" s="40"/>
       <c r="BA52" s="47"/>
-      <c r="BB52" s="41"/>
-      <c r="BC52" s="40"/>
-      <c r="BD52" s="40"/>
-      <c r="BE52" s="40"/>
-      <c r="BF52" s="40"/>
-      <c r="BG52" s="40"/>
-      <c r="BH52" s="40"/>
-      <c r="BI52" s="47"/>
-      <c r="BJ52" s="41"/>
-      <c r="BK52" s="40"/>
-      <c r="BL52" s="40"/>
-      <c r="BM52" s="40"/>
-      <c r="BN52" s="40"/>
+      <c r="BB52" s="44"/>
+      <c r="BC52" s="44"/>
+      <c r="BD52" s="44"/>
+      <c r="BE52" s="44"/>
+      <c r="BF52" s="44"/>
+      <c r="BG52" s="44"/>
+      <c r="BH52" s="44"/>
+      <c r="BI52" s="44"/>
+      <c r="BJ52" s="44"/>
+      <c r="BK52" s="44"/>
+      <c r="BL52" s="44"/>
+      <c r="BM52" s="44"/>
+      <c r="BN52" s="44"/>
       <c r="BO52" s="40"/>
       <c r="BP52" s="40"/>
       <c r="BQ52" s="47"/>
-      <c r="BR52" s="41"/>
-      <c r="BS52" s="40"/>
-      <c r="BT52" s="40"/>
-      <c r="BU52" s="40"/>
-      <c r="BV52" s="40"/>
-      <c r="BW52" s="40"/>
-      <c r="BX52" s="40"/>
-      <c r="BY52" s="40"/>
     </row>
-    <row r="53" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="60"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="63"/>
+    <row r="53" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="68"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="50" t="s">
         <v>24</v>
       </c>
@@ -5935,42 +5583,34 @@
       <c r="AQ53" s="40"/>
       <c r="AR53" s="40"/>
       <c r="AS53" s="47"/>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="40"/>
-      <c r="AV53" s="40"/>
-      <c r="AW53" s="40"/>
+      <c r="AT53" s="45"/>
+      <c r="AU53" s="45"/>
+      <c r="AV53" s="45"/>
+      <c r="AW53" s="45"/>
       <c r="AX53" s="40"/>
       <c r="AY53" s="40"/>
       <c r="AZ53" s="40"/>
       <c r="BA53" s="47"/>
-      <c r="BB53" s="41"/>
-      <c r="BC53" s="40"/>
-      <c r="BD53" s="40"/>
-      <c r="BE53" s="40"/>
-      <c r="BF53" s="40"/>
-      <c r="BG53" s="40"/>
-      <c r="BH53" s="40"/>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="41"/>
-      <c r="BK53" s="40"/>
-      <c r="BL53" s="40"/>
-      <c r="BM53" s="40"/>
-      <c r="BN53" s="40"/>
+      <c r="BB53" s="45"/>
+      <c r="BC53" s="45"/>
+      <c r="BD53" s="45"/>
+      <c r="BE53" s="45"/>
+      <c r="BF53" s="45"/>
+      <c r="BG53" s="45"/>
+      <c r="BH53" s="45"/>
+      <c r="BI53" s="45"/>
+      <c r="BJ53" s="45"/>
+      <c r="BK53" s="45"/>
+      <c r="BL53" s="45"/>
+      <c r="BM53" s="45"/>
+      <c r="BN53" s="45"/>
       <c r="BO53" s="40"/>
       <c r="BP53" s="40"/>
       <c r="BQ53" s="47"/>
-      <c r="BR53" s="41"/>
-      <c r="BS53" s="40"/>
-      <c r="BT53" s="40"/>
-      <c r="BU53" s="40"/>
-      <c r="BV53" s="40"/>
-      <c r="BW53" s="40"/>
-      <c r="BX53" s="40"/>
-      <c r="BY53" s="40"/>
     </row>
-    <row r="54" spans="1:77" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="60"/>
-      <c r="B54" s="64" t="s">
+    <row r="54" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="68"/>
+      <c r="B54" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="66" t="s">
@@ -5980,7 +5620,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="38"/>
@@ -6044,26 +5684,18 @@
       <c r="BM54" s="40"/>
       <c r="BN54" s="40"/>
       <c r="BO54" s="40"/>
-      <c r="BP54" s="40"/>
+      <c r="BP54" s="44"/>
       <c r="BQ54" s="47"/>
-      <c r="BR54" s="41"/>
-      <c r="BS54" s="40"/>
-      <c r="BT54" s="40"/>
-      <c r="BU54" s="40"/>
-      <c r="BV54" s="40"/>
-      <c r="BW54" s="40"/>
-      <c r="BX54" s="40"/>
-      <c r="BY54" s="40"/>
     </row>
-    <row r="55" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="60"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68"/>
+    <row r="55" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="68"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="38"/>
@@ -6127,19 +5759,11 @@
       <c r="BM55" s="40"/>
       <c r="BN55" s="40"/>
       <c r="BO55" s="40"/>
-      <c r="BP55" s="40"/>
+      <c r="BP55" s="45"/>
       <c r="BQ55" s="47"/>
-      <c r="BR55" s="41"/>
-      <c r="BS55" s="40"/>
-      <c r="BT55" s="40"/>
-      <c r="BU55" s="40"/>
-      <c r="BV55" s="40"/>
-      <c r="BW55" s="40"/>
-      <c r="BX55" s="40"/>
-      <c r="BY55" s="40"/>
     </row>
-    <row r="56" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="68"/>
       <c r="B56" s="66">
         <v>3.7</v>
       </c>
@@ -6214,21 +5838,13 @@
       <c r="BM56" s="40"/>
       <c r="BN56" s="40"/>
       <c r="BO56" s="40"/>
-      <c r="BP56" s="40"/>
+      <c r="BP56" s="44"/>
       <c r="BQ56" s="47"/>
-      <c r="BR56" s="41"/>
-      <c r="BS56" s="40"/>
-      <c r="BT56" s="40"/>
-      <c r="BU56" s="40"/>
-      <c r="BV56" s="40"/>
-      <c r="BW56" s="40"/>
-      <c r="BX56" s="40"/>
-      <c r="BY56" s="40"/>
     </row>
-    <row r="57" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="60"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
+    <row r="57" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="68"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="51" t="s">
         <v>24</v>
       </c>
@@ -6297,30 +5913,22 @@
       <c r="BM57" s="40"/>
       <c r="BN57" s="40"/>
       <c r="BO57" s="40"/>
-      <c r="BP57" s="40"/>
+      <c r="BP57" s="45"/>
       <c r="BQ57" s="47"/>
-      <c r="BR57" s="41"/>
-      <c r="BS57" s="40"/>
-      <c r="BT57" s="40"/>
-      <c r="BU57" s="40"/>
-      <c r="BV57" s="40"/>
-      <c r="BW57" s="40"/>
-      <c r="BX57" s="40"/>
-      <c r="BY57" s="40"/>
     </row>
-    <row r="58" spans="1:77" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
-      <c r="B58" s="69" t="s">
+    <row r="58" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="68"/>
+      <c r="B58" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="89" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="38"/>
@@ -6385,25 +5993,17 @@
       <c r="BN58" s="40"/>
       <c r="BO58" s="40"/>
       <c r="BP58" s="40"/>
-      <c r="BQ58" s="47"/>
-      <c r="BR58" s="41"/>
-      <c r="BS58" s="40"/>
-      <c r="BT58" s="40"/>
-      <c r="BU58" s="40"/>
-      <c r="BV58" s="40"/>
-      <c r="BW58" s="40"/>
-      <c r="BX58" s="40"/>
-      <c r="BY58" s="40"/>
+      <c r="BQ58" s="44"/>
     </row>
-    <row r="59" spans="1:77" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="60"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="63"/>
+    <row r="59" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="68"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="38"/>
@@ -6468,20 +6068,12 @@
       <c r="BN59" s="40"/>
       <c r="BO59" s="40"/>
       <c r="BP59" s="40"/>
-      <c r="BQ59" s="47"/>
-      <c r="BR59" s="41"/>
-      <c r="BS59" s="40"/>
-      <c r="BT59" s="40"/>
-      <c r="BU59" s="40"/>
-      <c r="BV59" s="40"/>
-      <c r="BW59" s="40"/>
-      <c r="BX59" s="40"/>
-      <c r="BY59" s="40"/>
+      <c r="BQ59" s="45"/>
     </row>
-    <row r="60" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
-      <c r="B60" s="64" t="s">
-        <v>88</v>
+    <row r="60" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="68"/>
+      <c r="B60" s="84" t="s">
+        <v>87</v>
       </c>
       <c r="C60" s="66" t="s">
         <v>60</v>
@@ -6555,20 +6147,12 @@
       <c r="BN60" s="40"/>
       <c r="BO60" s="40"/>
       <c r="BP60" s="40"/>
-      <c r="BQ60" s="47"/>
-      <c r="BR60" s="41"/>
-      <c r="BS60" s="40"/>
-      <c r="BT60" s="40"/>
-      <c r="BU60" s="40"/>
-      <c r="BV60" s="40"/>
-      <c r="BW60" s="40"/>
-      <c r="BX60" s="40"/>
-      <c r="BY60" s="40"/>
+      <c r="BQ60" s="44"/>
     </row>
-    <row r="61" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="61"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
+    <row r="61" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="69"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="51" t="s">
         <v>24</v>
       </c>
@@ -6638,24 +6222,16 @@
       <c r="BN61" s="26"/>
       <c r="BO61" s="26"/>
       <c r="BP61" s="26"/>
-      <c r="BQ61" s="27"/>
-      <c r="BR61" s="25"/>
-      <c r="BS61" s="26"/>
-      <c r="BT61" s="26"/>
-      <c r="BU61" s="26"/>
-      <c r="BV61" s="26"/>
-      <c r="BW61" s="26"/>
-      <c r="BX61" s="26"/>
-      <c r="BY61" s="26"/>
+      <c r="BQ61" s="45"/>
     </row>
-    <row r="62" spans="1:77" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="92" t="s">
+    <row r="62" spans="1:69" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="89" t="s">
         <v>85</v>
       </c>
       <c r="D62" s="52" t="s">
@@ -6728,19 +6304,11 @@
       <c r="BO62" s="31"/>
       <c r="BP62" s="31"/>
       <c r="BQ62" s="44"/>
-      <c r="BR62" s="33"/>
-      <c r="BS62" s="31"/>
-      <c r="BT62" s="31"/>
-      <c r="BU62" s="31"/>
-      <c r="BV62" s="31"/>
-      <c r="BW62" s="31"/>
-      <c r="BX62" s="44"/>
-      <c r="BY62" s="31"/>
     </row>
-    <row r="63" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="93"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="70"/>
+    <row r="63" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="80"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="50" t="s">
         <v>24</v>
       </c>
@@ -6811,18 +6379,10 @@
       <c r="BO63" s="40"/>
       <c r="BP63" s="40"/>
       <c r="BQ63" s="45"/>
-      <c r="BR63" s="41"/>
-      <c r="BS63" s="40"/>
-      <c r="BT63" s="40"/>
-      <c r="BU63" s="40"/>
-      <c r="BV63" s="40"/>
-      <c r="BW63" s="40"/>
-      <c r="BX63" s="45"/>
-      <c r="BY63" s="40"/>
     </row>
-    <row r="64" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="93"/>
-      <c r="B64" s="64" t="s">
+    <row r="64" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="80"/>
+      <c r="B64" s="84" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="66" t="s">
@@ -6832,7 +6392,7 @@
         <v>23</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="38"/>
@@ -6895,27 +6455,19 @@
       <c r="BL64" s="40"/>
       <c r="BM64" s="40"/>
       <c r="BN64" s="40"/>
-      <c r="BO64" s="40"/>
+      <c r="BO64" s="44"/>
       <c r="BP64" s="40"/>
       <c r="BQ64" s="47"/>
-      <c r="BR64" s="41"/>
-      <c r="BS64" s="40"/>
-      <c r="BT64" s="40"/>
-      <c r="BU64" s="40"/>
-      <c r="BV64" s="40"/>
-      <c r="BW64" s="40"/>
-      <c r="BX64" s="40"/>
-      <c r="BY64" s="40"/>
     </row>
-    <row r="65" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="93"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="63"/>
+    <row r="65" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="80"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="38"/>
@@ -6978,21 +6530,13 @@
       <c r="BL65" s="40"/>
       <c r="BM65" s="40"/>
       <c r="BN65" s="40"/>
-      <c r="BO65" s="40"/>
+      <c r="BO65" s="45"/>
       <c r="BP65" s="40"/>
       <c r="BQ65" s="47"/>
-      <c r="BR65" s="41"/>
-      <c r="BS65" s="40"/>
-      <c r="BT65" s="40"/>
-      <c r="BU65" s="40"/>
-      <c r="BV65" s="40"/>
-      <c r="BW65" s="40"/>
-      <c r="BX65" s="40"/>
-      <c r="BY65" s="40"/>
     </row>
-    <row r="66" spans="1:77" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="93"/>
-      <c r="B66" s="87" t="s">
+    <row r="66" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="80"/>
+      <c r="B66" s="82" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="66" t="s">
@@ -7002,7 +6546,7 @@
         <v>23</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="38"/>
@@ -7068,24 +6612,16 @@
       <c r="BO66" s="40"/>
       <c r="BP66" s="40"/>
       <c r="BQ66" s="44"/>
-      <c r="BR66" s="41"/>
-      <c r="BS66" s="40"/>
-      <c r="BT66" s="40"/>
-      <c r="BU66" s="40"/>
-      <c r="BV66" s="40"/>
-      <c r="BW66" s="40"/>
-      <c r="BX66" s="44"/>
-      <c r="BY66" s="40"/>
     </row>
-    <row r="67" spans="1:77" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="94"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="68"/>
+    <row r="67" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="81"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="38"/>
@@ -7151,54 +6687,32 @@
       <c r="BO67" s="40"/>
       <c r="BP67" s="40"/>
       <c r="BQ67" s="45"/>
-      <c r="BR67" s="41"/>
-      <c r="BS67" s="40"/>
-      <c r="BT67" s="40"/>
-      <c r="BU67" s="40"/>
-      <c r="BV67" s="40"/>
-      <c r="BW67" s="40"/>
-      <c r="BX67" s="45"/>
-      <c r="BY67" s="40"/>
     </row>
-    <row r="68" spans="1:77" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:69" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="BB11:BI11"/>
-    <mergeCell ref="BJ11:BQ11"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="BR11:BY11"/>
-    <mergeCell ref="A12:A29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="AT11:BA11"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F10:BY10"/>
-    <mergeCell ref="AL11:AS11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B34:B35"/>
+  <mergeCells count="85">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -7215,37 +6729,50 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F10:BQ10"/>
+    <mergeCell ref="AL11:AS11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A44:A61"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="BB11:BI11"/>
+    <mergeCell ref="BJ11:BQ11"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AT11:BA11"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
@@ -7261,13 +6788,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7470,26 +6996,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22857e2e-9fd3-4b08-a467-14538fd7f40f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7514,9 +7033,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFF03B3-43E3-4E14-B176-9F3BA384CD2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80E20BB-DF41-4178-97D7-FDAC12674051}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22857e2e-9fd3-4b08-a467-14538fd7f40f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Zeitplan_Unity.xlsx
+++ b/Documentation/Zeitplan_Unity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol41\Downloads\IPA\MobileProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179FC92-C50A-4839-BA25-9AB929C9A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B39256-FC7A-4E52-947D-BE85365E4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben- und Terminplanung 241" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>Allgemeine Informationen</t>
   </si>
@@ -82,15 +82,9 @@
     <t>Meilenstein</t>
   </si>
   <si>
-    <t>3. Realisierungsphase beendet</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>4. Projekt abgeschlossen</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -317,6 +311,9 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>3. Projekt abgeschlossen</t>
   </si>
 </sst>
 </file>
@@ -569,19 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -732,19 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1114,11 +1085,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1159,7 +1156,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1169,181 +1166,181 @@
     <xf numFmtId="2" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1363,34 +1360,37 @@
     <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1508,8 +1508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13598239" y="6654476"/>
-          <a:ext cx="340194" cy="419330"/>
+          <a:off x="13510378" y="6622127"/>
+          <a:ext cx="326215" cy="411342"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1538,7 +1538,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>13. Projekt abgeschlossen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1547,15 +1547,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>581118</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27588</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>644618</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>202213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>166502</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>182377</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>10271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,8 +1571,71 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="24166832" y="9522350"/>
-          <a:ext cx="341337" cy="406016"/>
+          <a:off x="55714993" y="13886463"/>
+          <a:ext cx="331509" cy="427183"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>560612</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>191694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>145993</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>179702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Raute 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EAC976-5E69-43AD-9B6F-C2FC11265ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23843945" y="9568527"/>
+          <a:ext cx="326215" cy="411342"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1602,6 +1665,16 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3. Projekt abgeschlossen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1964,8 +2037,8 @@
   </sheetPr>
   <dimension ref="A1:BQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP34" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN52" sqref="BN52:BN53"/>
+    <sheetView tabSelected="1" topLeftCell="BD41" zoomScale="30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1984,10 +2057,10 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="105"/>
+      <c r="C2" s="106"/>
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
       <c r="F2" s="90"/>
@@ -2022,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -2057,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
@@ -2094,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
@@ -2104,11 +2177,11 @@
       </c>
       <c r="I5" s="94"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
+      <c r="K5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="104"/>
       <c r="T5" s="13"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -2128,21 +2201,18 @@
     </row>
     <row r="6" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
       <c r="T6" s="14"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -2200,104 +2270,104 @@
     </row>
     <row r="9" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:69" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="D10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="78"/>
-      <c r="BF10" s="78"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="78"/>
-      <c r="BI10" s="78"/>
-      <c r="BJ10" s="78"/>
-      <c r="BK10" s="78"/>
-      <c r="BL10" s="78"/>
-      <c r="BM10" s="78"/>
-      <c r="BN10" s="78"/>
-      <c r="BO10" s="78"/>
-      <c r="BP10" s="78"/>
-      <c r="BQ10" s="78"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="84"/>
+      <c r="BH10" s="84"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="84"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="84"/>
+      <c r="BN10" s="84"/>
+      <c r="BO10" s="84"/>
+      <c r="BP10" s="84"/>
+      <c r="BQ10" s="84"/>
     </row>
     <row r="11" spans="1:69" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="88">
+      <c r="A11" s="80"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="89">
         <v>45068</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="63">
         <v>45069</v>
       </c>
@@ -2318,16 +2388,16 @@
       <c r="AA11" s="64"/>
       <c r="AB11" s="64"/>
       <c r="AC11" s="65"/>
-      <c r="AD11" s="88">
+      <c r="AD11" s="89">
         <v>45072</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
       <c r="AL11" s="63">
         <v>45076</v>
       </c>
@@ -2370,20 +2440,20 @@
       <c r="BQ11" s="65"/>
     </row>
     <row r="12" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
@@ -2451,14 +2521,14 @@
       <c r="BQ12" s="47"/>
     </row>
     <row r="13" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
@@ -2526,18 +2596,18 @@
       <c r="BQ13" s="47"/>
     </row>
     <row r="14" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="84" t="s">
-        <v>25</v>
+      <c r="A14" s="70"/>
+      <c r="B14" s="74" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="38"/>
@@ -2605,14 +2675,14 @@
       <c r="BQ14" s="47"/>
     </row>
     <row r="15" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="38"/>
@@ -2680,18 +2750,18 @@
       <c r="BQ15" s="47"/>
     </row>
     <row r="16" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="68"/>
-      <c r="B16" s="84" t="s">
-        <v>26</v>
+      <c r="A16" s="70"/>
+      <c r="B16" s="74" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="38"/>
@@ -2759,14 +2829,14 @@
       <c r="BQ16" s="47"/>
     </row>
     <row r="17" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="38"/>
@@ -2834,18 +2904,18 @@
       <c r="BQ17" s="47"/>
     </row>
     <row r="18" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="84" t="s">
-        <v>27</v>
+      <c r="A18" s="70"/>
+      <c r="B18" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="38"/>
@@ -2913,14 +2983,14 @@
       <c r="BQ18" s="47"/>
     </row>
     <row r="19" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="38"/>
@@ -2988,18 +3058,18 @@
       <c r="BQ19" s="47"/>
     </row>
     <row r="20" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="84" t="s">
-        <v>28</v>
+      <c r="A20" s="70"/>
+      <c r="B20" s="74" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="38"/>
@@ -3067,14 +3137,14 @@
       <c r="BQ20" s="47"/>
     </row>
     <row r="21" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="38"/>
@@ -3142,18 +3212,18 @@
       <c r="BQ21" s="47"/>
     </row>
     <row r="22" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
-      <c r="B22" s="84" t="s">
-        <v>30</v>
+      <c r="A22" s="70"/>
+      <c r="B22" s="74" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="38"/>
@@ -3221,14 +3291,14 @@
       <c r="BQ22" s="47"/>
     </row>
     <row r="23" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="38"/>
@@ -3296,18 +3366,18 @@
       <c r="BQ23" s="47"/>
     </row>
     <row r="24" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="84" t="s">
-        <v>53</v>
+      <c r="A24" s="70"/>
+      <c r="B24" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="38"/>
@@ -3375,14 +3445,14 @@
       <c r="BQ24" s="47"/>
     </row>
     <row r="25" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="38"/>
@@ -3450,18 +3520,18 @@
       <c r="BQ25" s="47"/>
     </row>
     <row r="26" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="68"/>
-      <c r="B26" s="84" t="s">
-        <v>78</v>
+      <c r="A26" s="70"/>
+      <c r="B26" s="74" t="s">
+        <v>76</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="38"/>
@@ -3529,14 +3599,14 @@
       <c r="BQ26" s="47"/>
     </row>
     <row r="27" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="38"/>
@@ -3604,18 +3674,18 @@
       <c r="BQ27" s="47"/>
     </row>
     <row r="28" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="68"/>
-      <c r="B28" s="84" t="s">
-        <v>79</v>
+      <c r="A28" s="70"/>
+      <c r="B28" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="38"/>
@@ -3683,14 +3753,14 @@
       <c r="BQ28" s="47"/>
     </row>
     <row r="29" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="67"/>
       <c r="D29" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -3758,20 +3828,20 @@
       <c r="BQ29" s="27"/>
     </row>
     <row r="30" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="86" t="s">
+      <c r="B30" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -3839,14 +3909,14 @@
       <c r="BQ30" s="32"/>
     </row>
     <row r="31" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="38"/>
@@ -3913,18 +3983,18 @@
       <c r="BQ31" s="47"/>
     </row>
     <row r="32" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="B32" s="82" t="s">
-        <v>61</v>
+      <c r="A32" s="70"/>
+      <c r="B32" s="75" t="s">
+        <v>59</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="38"/>
@@ -3992,14 +4062,14 @@
       <c r="BQ32" s="47"/>
     </row>
     <row r="33" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="68"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="38"/>
@@ -4067,18 +4137,18 @@
       <c r="BQ33" s="47"/>
     </row>
     <row r="34" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="B34" s="82" t="s">
-        <v>62</v>
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="38"/>
@@ -4146,14 +4216,14 @@
       <c r="BQ34" s="47"/>
     </row>
     <row r="35" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="68"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="38"/>
@@ -4221,18 +4291,18 @@
       <c r="BQ35" s="47"/>
     </row>
     <row r="36" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="68"/>
-      <c r="B36" s="82" t="s">
-        <v>63</v>
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="38"/>
@@ -4300,14 +4370,14 @@
       <c r="BQ36" s="39"/>
     </row>
     <row r="37" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="38"/>
@@ -4375,18 +4445,18 @@
       <c r="BQ37" s="48"/>
     </row>
     <row r="38" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="82" t="s">
-        <v>34</v>
+      <c r="A38" s="70"/>
+      <c r="B38" s="75" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="38"/>
@@ -4454,14 +4524,14 @@
       <c r="BQ38" s="47"/>
     </row>
     <row r="39" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="68"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="38"/>
@@ -4529,18 +4599,18 @@
       <c r="BQ39" s="47"/>
     </row>
     <row r="40" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="68"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="38"/>
@@ -4608,14 +4678,14 @@
       <c r="BQ40" s="47"/>
     </row>
     <row r="41" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="68"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="38"/>
@@ -4683,18 +4753,18 @@
       <c r="BQ41" s="47"/>
     </row>
     <row r="42" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="68"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="66">
         <v>2.7</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="38"/>
@@ -4762,14 +4832,14 @@
       <c r="BQ42" s="47"/>
     </row>
     <row r="43" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="69"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="67"/>
       <c r="C43" s="67"/>
       <c r="D43" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
@@ -4837,20 +4907,20 @@
       <c r="BQ43" s="27"/>
     </row>
     <row r="44" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="89" t="s">
-        <v>46</v>
+      <c r="A44" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>44</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
@@ -4918,14 +4988,14 @@
       <c r="BQ44" s="32"/>
     </row>
     <row r="45" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="68"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="38"/>
@@ -4993,18 +5063,18 @@
       <c r="BQ45" s="47"/>
     </row>
     <row r="46" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
-      <c r="B46" s="84" t="s">
-        <v>37</v>
+      <c r="A46" s="70"/>
+      <c r="B46" s="74" t="s">
+        <v>35</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="38"/>
@@ -5072,14 +5142,14 @@
       <c r="BQ46" s="47"/>
     </row>
     <row r="47" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="68"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="38"/>
@@ -5147,18 +5217,18 @@
       <c r="BQ47" s="47"/>
     </row>
     <row r="48" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="68"/>
-      <c r="B48" s="84" t="s">
-        <v>38</v>
+      <c r="A48" s="70"/>
+      <c r="B48" s="74" t="s">
+        <v>36</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="38"/>
@@ -5226,14 +5296,14 @@
       <c r="BQ48" s="47"/>
     </row>
     <row r="49" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="72"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="38"/>
@@ -5301,18 +5371,18 @@
       <c r="BQ49" s="47"/>
     </row>
     <row r="50" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="68"/>
-      <c r="B50" s="84" t="s">
-        <v>39</v>
+      <c r="A50" s="70"/>
+      <c r="B50" s="74" t="s">
+        <v>37</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="38"/>
@@ -5380,14 +5450,14 @@
       <c r="BQ50" s="47"/>
     </row>
     <row r="51" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="68"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="38"/>
@@ -5455,18 +5525,18 @@
       <c r="BQ51" s="47"/>
     </row>
     <row r="52" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="84" t="s">
-        <v>40</v>
+      <c r="A52" s="70"/>
+      <c r="B52" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="38"/>
@@ -5534,14 +5604,14 @@
       <c r="BQ52" s="47"/>
     </row>
     <row r="53" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="68"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="38"/>
@@ -5609,18 +5679,18 @@
       <c r="BQ53" s="47"/>
     </row>
     <row r="54" spans="1:69" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="68"/>
-      <c r="B54" s="84" t="s">
-        <v>41</v>
+      <c r="A54" s="70"/>
+      <c r="B54" s="74" t="s">
+        <v>39</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="38"/>
@@ -5688,14 +5758,14 @@
       <c r="BQ54" s="47"/>
     </row>
     <row r="55" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="68"/>
-      <c r="B55" s="85"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="67"/>
       <c r="D55" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="38"/>
@@ -5763,18 +5833,18 @@
       <c r="BQ55" s="47"/>
     </row>
     <row r="56" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="68"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="66">
         <v>3.7</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="38"/>
@@ -5842,14 +5912,14 @@
       <c r="BQ56" s="47"/>
     </row>
     <row r="57" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="68"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="67"/>
       <c r="C57" s="67"/>
       <c r="D57" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="38"/>
@@ -5917,18 +5987,18 @@
       <c r="BQ57" s="47"/>
     </row>
     <row r="58" spans="1:69" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="68"/>
-      <c r="B58" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="89" t="s">
-        <v>69</v>
+      <c r="A58" s="70"/>
+      <c r="B58" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="38"/>
@@ -5996,14 +6066,14 @@
       <c r="BQ58" s="44"/>
     </row>
     <row r="59" spans="1:69" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="68"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="72"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="38"/>
@@ -6071,18 +6141,18 @@
       <c r="BQ59" s="45"/>
     </row>
     <row r="60" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="68"/>
-      <c r="B60" s="84" t="s">
-        <v>87</v>
+      <c r="A60" s="70"/>
+      <c r="B60" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="38"/>
@@ -6150,14 +6220,14 @@
       <c r="BQ60" s="44"/>
     </row>
     <row r="61" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="69"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="67"/>
       <c r="D61" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="23"/>
@@ -6225,20 +6295,20 @@
       <c r="BQ61" s="45"/>
     </row>
     <row r="62" spans="1:69" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>85</v>
+      <c r="A62" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>83</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -6306,14 +6376,14 @@
       <c r="BQ62" s="44"/>
     </row>
     <row r="63" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="80"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="86"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="38"/>
@@ -6381,18 +6451,18 @@
       <c r="BQ63" s="45"/>
     </row>
     <row r="64" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="80"/>
-      <c r="B64" s="84" t="s">
-        <v>43</v>
+      <c r="A64" s="86"/>
+      <c r="B64" s="74" t="s">
+        <v>41</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="38"/>
@@ -6460,14 +6530,14 @@
       <c r="BQ64" s="47"/>
     </row>
     <row r="65" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="80"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="38"/>
@@ -6535,18 +6605,18 @@
       <c r="BQ65" s="47"/>
     </row>
     <row r="66" spans="1:69" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="80"/>
-      <c r="B66" s="82" t="s">
-        <v>59</v>
+      <c r="A66" s="86"/>
+      <c r="B66" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="38"/>
@@ -6614,14 +6684,14 @@
       <c r="BQ66" s="44"/>
     </row>
     <row r="67" spans="1:69" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="81"/>
-      <c r="B67" s="85"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="67"/>
       <c r="D67" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="38"/>
